--- a/시장분석용_정보/시장분석용_4183032000.xlsx
+++ b/시장분석용_정보/시장분석용_4183032000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 3689000057</t>
   </si>
   <si>
@@ -199,16 +289,16 @@
     <t>202205 3089201679</t>
   </si>
   <si>
-    <t>다나암 요양병원</t>
-  </si>
-  <si>
-    <t>경기도 양평군 강하면 사호1길 51</t>
-  </si>
-  <si>
-    <t>경기도 양평군 강하면 사호1길 51 .</t>
-  </si>
-  <si>
     <t>JDQ4MTYyMiM1MSMkMSMkMCMkOTkkNTgxMzUxIzUxIyQxIyQxIyQxMyQ0NjE0ODEjNzEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>다나암요양병원</t>
+  </si>
+  <si>
+    <t>경기도 양평군 강하면 사호1길 51 다나암요양병원</t>
   </si>
   <si>
     <t>요양병원</t>
@@ -569,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,43 +762,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>6316</v>
+        <v>7281</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>83739169</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>3689000057</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J2">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2">
         <v>4183032000</v>
+      </c>
+      <c r="K2">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
       </c>
       <c r="M2">
         <v>355196865</v>
@@ -720,96 +900,186 @@
         <v>1291978</v>
       </c>
       <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>53.35</v>
+      </c>
+      <c r="T2">
+        <v>8.76</v>
+      </c>
+      <c r="U2">
+        <v>12.89</v>
+      </c>
+      <c r="V2">
+        <v>17.54</v>
+      </c>
+      <c r="W2">
+        <v>7.45</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>25.32</v>
+      </c>
+      <c r="Z2">
+        <v>25.26</v>
+      </c>
+      <c r="AA2">
+        <v>49.42</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>1.19</v>
       </c>
-      <c r="Q2">
+      <c r="AG2">
         <v>10.99</v>
       </c>
-      <c r="R2">
+      <c r="AH2">
         <v>18.23</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>10.99</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>5.48</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <v>3.18</v>
       </c>
-      <c r="V2">
+      <c r="AL2">
         <v>5.54</v>
       </c>
-      <c r="W2">
+      <c r="AM2">
         <v>12.28</v>
       </c>
-      <c r="X2">
+      <c r="AN2">
         <v>19.3</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>12.81</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0.26</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>6.08</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>42.01</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>40.26</v>
       </c>
-      <c r="AF2">
+      <c r="AV2">
         <v>9.93</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
         <v>1.46</v>
       </c>
+      <c r="AX2">
+        <v>13.82</v>
+      </c>
+      <c r="AY2">
+        <v>1.68</v>
+      </c>
+      <c r="AZ2">
+        <v>17.61</v>
+      </c>
+      <c r="BA2">
+        <v>39.39</v>
+      </c>
+      <c r="BB2">
+        <v>25.68</v>
+      </c>
+      <c r="BC2">
+        <v>1.82</v>
+      </c>
+      <c r="BD2">
+        <v>7.3</v>
+      </c>
+      <c r="BE2">
+        <v>2.92</v>
+      </c>
+      <c r="BF2">
+        <v>5.53</v>
+      </c>
+      <c r="BG2">
+        <v>6.9</v>
+      </c>
+      <c r="BH2">
+        <v>27</v>
+      </c>
+      <c r="BI2">
+        <v>70.33</v>
+      </c>
+      <c r="BJ2">
+        <v>75.7</v>
+      </c>
+      <c r="BK2">
+        <v>18.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>16604</v>
+        <v>19025</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>83739169</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>3689000057</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J3">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3">
         <v>4183032000</v>
+      </c>
+      <c r="K3">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
       </c>
       <c r="M3">
         <v>270707473</v>
@@ -821,96 +1091,186 @@
         <v>1220966</v>
       </c>
       <c r="P3">
+        <v>87.08</v>
+      </c>
+      <c r="Q3">
+        <v>12.92</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>29.99</v>
+      </c>
+      <c r="T3">
+        <v>35.28</v>
+      </c>
+      <c r="U3">
+        <v>7.48</v>
+      </c>
+      <c r="V3">
+        <v>5.79</v>
+      </c>
+      <c r="W3">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="X3">
+        <v>12.92</v>
+      </c>
+      <c r="Y3">
+        <v>33.21</v>
+      </c>
+      <c r="Z3">
+        <v>26.97</v>
+      </c>
+      <c r="AA3">
+        <v>39.82</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="AG3">
         <v>7.37</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
         <v>19.47</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>5.77</v>
       </c>
-      <c r="T3">
+      <c r="AJ3">
         <v>16.25</v>
       </c>
-      <c r="U3">
+      <c r="AK3">
         <v>5.52</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>3.08</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>18.41</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>8.57</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>15.48</v>
       </c>
-      <c r="Z3">
+      <c r="AP3">
         <v>2.08</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>3.69</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>53.81</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>25</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>10.29</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>5.14</v>
       </c>
+      <c r="AX3">
+        <v>17.87</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>3.97</v>
+      </c>
+      <c r="BA3">
+        <v>43.9</v>
+      </c>
+      <c r="BB3">
+        <v>31.52</v>
+      </c>
+      <c r="BC3">
+        <v>2.74</v>
+      </c>
+      <c r="BD3">
+        <v>7.98</v>
+      </c>
+      <c r="BE3">
+        <v>2</v>
+      </c>
+      <c r="BF3">
+        <v>7.43</v>
+      </c>
+      <c r="BG3">
+        <v>4.84</v>
+      </c>
+      <c r="BH3">
+        <v>16.41</v>
+      </c>
+      <c r="BI3">
+        <v>70.37</v>
+      </c>
+      <c r="BJ3">
+        <v>72.2</v>
+      </c>
+      <c r="BK3">
+        <v>13.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>26893</v>
+        <v>30761</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>83739169</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>3689000057</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J4">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4">
         <v>4183032000</v>
+      </c>
+      <c r="K4">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
       </c>
       <c r="M4">
         <v>219192036</v>
@@ -922,96 +1282,186 @@
         <v>1404593</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="Q4">
+        <v>22.74</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.6</v>
+      </c>
+      <c r="T4">
+        <v>10.89</v>
+      </c>
+      <c r="U4">
+        <v>12.81</v>
+      </c>
+      <c r="V4">
+        <v>17.48</v>
+      </c>
+      <c r="W4">
+        <v>18.49</v>
+      </c>
+      <c r="X4">
+        <v>22.74</v>
+      </c>
+      <c r="Y4">
+        <v>45.11</v>
+      </c>
+      <c r="Z4">
+        <v>34.87</v>
+      </c>
+      <c r="AA4">
+        <v>20.02</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>5.76</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>29.33</v>
       </c>
-      <c r="S4">
+      <c r="AI4">
         <v>19.04</v>
       </c>
-      <c r="T4">
+      <c r="AJ4">
         <v>21.52</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>3.7</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>10.54</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>10.1</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>66.66</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>28.54</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>2.08</v>
       </c>
-      <c r="AG4">
+      <c r="AW4">
         <v>2.72</v>
       </c>
+      <c r="AX4">
+        <v>5.32</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>20.33</v>
+      </c>
+      <c r="BA4">
+        <v>23.68</v>
+      </c>
+      <c r="BB4">
+        <v>48.75</v>
+      </c>
+      <c r="BC4">
+        <v>1.93</v>
+      </c>
+      <c r="BD4">
+        <v>10.38</v>
+      </c>
+      <c r="BE4">
+        <v>2.31</v>
+      </c>
+      <c r="BF4">
+        <v>2.32</v>
+      </c>
+      <c r="BG4">
+        <v>2.34</v>
+      </c>
+      <c r="BH4">
+        <v>6.34</v>
+      </c>
+      <c r="BI4">
+        <v>51.77</v>
+      </c>
+      <c r="BJ4">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="BK4">
+        <v>19.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>37223</v>
+        <v>42540</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>83739169</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>3689000057</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J5">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5">
         <v>4183032000</v>
+      </c>
+      <c r="K5">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
       </c>
       <c r="M5">
         <v>194710241</v>
@@ -1023,96 +1473,186 @@
         <v>892049</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>97.69</v>
       </c>
       <c r="Q5">
+        <v>2.31</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.19</v>
+      </c>
+      <c r="T5">
+        <v>18.73</v>
+      </c>
+      <c r="U5">
+        <v>1.89</v>
+      </c>
+      <c r="V5">
+        <v>46.34</v>
+      </c>
+      <c r="W5">
+        <v>15.45</v>
+      </c>
+      <c r="X5">
+        <v>1.39</v>
+      </c>
+      <c r="Y5">
+        <v>22.6</v>
+      </c>
+      <c r="Z5">
+        <v>41.92</v>
+      </c>
+      <c r="AA5">
+        <v>35.48</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>7.3</v>
       </c>
-      <c r="R5">
+      <c r="AH5">
         <v>13.04</v>
       </c>
-      <c r="S5">
+      <c r="AI5">
         <v>19.24</v>
       </c>
-      <c r="T5">
+      <c r="AJ5">
         <v>28.95</v>
       </c>
-      <c r="U5">
+      <c r="AK5">
         <v>2.61</v>
       </c>
-      <c r="V5">
+      <c r="AL5">
         <v>3.48</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>10.8</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>14.58</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>46.97</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>48.39</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>1.56</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
         <v>3.07</v>
       </c>
+      <c r="AX5">
+        <v>24.53</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0.78</v>
+      </c>
+      <c r="BA5">
+        <v>31.34</v>
+      </c>
+      <c r="BB5">
+        <v>39.02</v>
+      </c>
+      <c r="BC5">
+        <v>4.32</v>
+      </c>
+      <c r="BD5">
+        <v>13.04</v>
+      </c>
+      <c r="BE5">
+        <v>3.91</v>
+      </c>
+      <c r="BF5">
+        <v>5.27</v>
+      </c>
+      <c r="BG5">
+        <v>3.42</v>
+      </c>
+      <c r="BH5">
+        <v>18.89</v>
+      </c>
+      <c r="BI5">
+        <v>70.38</v>
+      </c>
+      <c r="BJ5">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="BK5">
+        <v>19.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>47617</v>
+        <v>54382</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>83739169</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>3689000057</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J6">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6">
         <v>4183032000</v>
+      </c>
+      <c r="K6">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
       </c>
       <c r="M6">
         <v>199298484</v>
@@ -1124,40 +1664,40 @@
         <v>1106425</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>90.06</v>
       </c>
       <c r="Q6">
-        <v>2.58</v>
+        <v>9.94</v>
       </c>
       <c r="R6">
-        <v>14.43</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>24.14</v>
+        <v>49.79</v>
       </c>
       <c r="T6">
-        <v>23.66</v>
+        <v>1.6</v>
       </c>
       <c r="U6">
-        <v>2.58</v>
+        <v>14.95</v>
       </c>
       <c r="V6">
-        <v>2.29</v>
+        <v>16.41</v>
       </c>
       <c r="W6">
-        <v>14.51</v>
+        <v>7.3</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="Y6">
-        <v>15.81</v>
+        <v>39.57</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>40.23</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1166,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>29.63</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>67.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1177,43 +1717,133 @@
       <c r="AG6">
         <v>2.58</v>
       </c>
+      <c r="AH6">
+        <v>14.43</v>
+      </c>
+      <c r="AI6">
+        <v>24.14</v>
+      </c>
+      <c r="AJ6">
+        <v>23.66</v>
+      </c>
+      <c r="AK6">
+        <v>2.58</v>
+      </c>
+      <c r="AL6">
+        <v>2.29</v>
+      </c>
+      <c r="AM6">
+        <v>14.51</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>15.81</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>29.63</v>
+      </c>
+      <c r="AU6">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>2.58</v>
+      </c>
+      <c r="AX6">
+        <v>11.12</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>38.68</v>
+      </c>
+      <c r="BB6">
+        <v>40.62</v>
+      </c>
+      <c r="BC6">
+        <v>9.59</v>
+      </c>
+      <c r="BD6">
+        <v>12.91</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>4.87</v>
+      </c>
+      <c r="BG6">
+        <v>4.37</v>
+      </c>
+      <c r="BH6">
+        <v>17.1</v>
+      </c>
+      <c r="BI6">
+        <v>71.16</v>
+      </c>
+      <c r="BJ6">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>15.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>58047</v>
+        <v>66250</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>83739169</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>3689000057</v>
       </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J7">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7">
         <v>4183032000</v>
+      </c>
+      <c r="K7">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
       </c>
       <c r="M7">
         <v>277161284</v>
@@ -1225,96 +1855,186 @@
         <v>1577068</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>31.86</v>
+      </c>
+      <c r="T7">
+        <v>34.85</v>
+      </c>
+      <c r="U7">
+        <v>7.87</v>
+      </c>
+      <c r="V7">
+        <v>4.1</v>
+      </c>
+      <c r="W7">
+        <v>21.31</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>45.47</v>
+      </c>
+      <c r="Z7">
+        <v>42.7</v>
+      </c>
+      <c r="AA7">
+        <v>11.83</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>1.92</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>9.08</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>10.54</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>28.59</v>
       </c>
-      <c r="U7">
+      <c r="AK7">
         <v>1.86</v>
       </c>
-      <c r="V7">
+      <c r="AL7">
         <v>11.54</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>24.3</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>12.18</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>9.33</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>27.97</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>60.84</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>1.86</v>
       </c>
+      <c r="AX7">
+        <v>24.95</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>29.27</v>
+      </c>
+      <c r="BB7">
+        <v>38.52</v>
+      </c>
+      <c r="BC7">
+        <v>7.26</v>
+      </c>
+      <c r="BD7">
+        <v>13.87</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>7.18</v>
+      </c>
+      <c r="BG7">
+        <v>2.3</v>
+      </c>
+      <c r="BH7">
+        <v>4.62</v>
+      </c>
+      <c r="BI7">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>76</v>
+      </c>
+      <c r="BK7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>68514</v>
+        <v>78146</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
         <v>202007</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>83739169</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>3689000057</v>
       </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J8">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8">
         <v>4183032000</v>
+      </c>
+      <c r="K8">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
       </c>
       <c r="M8">
         <v>200498855</v>
@@ -1326,96 +2046,186 @@
         <v>1104339</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>91.55</v>
       </c>
       <c r="Q8">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.21</v>
+      </c>
+      <c r="T8">
+        <v>3.78</v>
+      </c>
+      <c r="U8">
+        <v>15.21</v>
+      </c>
+      <c r="V8">
+        <v>15.69</v>
+      </c>
+      <c r="W8">
+        <v>42.66</v>
+      </c>
+      <c r="X8">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>13.88</v>
+      </c>
+      <c r="Z8">
+        <v>53.96</v>
+      </c>
+      <c r="AA8">
+        <v>31.7</v>
+      </c>
+      <c r="AB8">
+        <v>0.46</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>2.85</v>
       </c>
-      <c r="R8">
+      <c r="AH8">
         <v>12.43</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>28.75</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>24.76</v>
       </c>
-      <c r="U8">
+      <c r="AK8">
         <v>2.59</v>
       </c>
-      <c r="V8">
+      <c r="AL8">
         <v>12.06</v>
       </c>
-      <c r="W8">
+      <c r="AM8">
         <v>3.84</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>12.73</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>0.26</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>11.71</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>52.99</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>27.03</v>
       </c>
-      <c r="AF8">
+      <c r="AV8">
         <v>5.43</v>
       </c>
-      <c r="AG8">
+      <c r="AW8">
         <v>2.59</v>
       </c>
+      <c r="AX8">
+        <v>16.96</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>2.59</v>
+      </c>
+      <c r="BA8">
+        <v>18.92</v>
+      </c>
+      <c r="BB8">
+        <v>46.86</v>
+      </c>
+      <c r="BC8">
+        <v>14.68</v>
+      </c>
+      <c r="BD8">
+        <v>24.13</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>5.17</v>
+      </c>
+      <c r="BG8">
+        <v>4.97</v>
+      </c>
+      <c r="BH8">
+        <v>7.06</v>
+      </c>
+      <c r="BI8">
+        <v>46.66</v>
+      </c>
+      <c r="BJ8">
+        <v>79.2</v>
+      </c>
+      <c r="BK8">
+        <v>29.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>78977</v>
+        <v>90030</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
         <v>202008</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>83739169</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>3689000057</v>
       </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J9">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9">
         <v>4183032000</v>
+      </c>
+      <c r="K9">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
       </c>
       <c r="M9">
         <v>181675210</v>
@@ -1427,96 +2237,186 @@
         <v>1011148</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.22</v>
+      </c>
+      <c r="T9">
+        <v>15.4</v>
+      </c>
+      <c r="U9">
+        <v>57.24</v>
+      </c>
+      <c r="V9">
+        <v>8.99</v>
+      </c>
+      <c r="W9">
+        <v>0.65</v>
+      </c>
+      <c r="X9">
+        <v>2.5</v>
+      </c>
+      <c r="Y9">
+        <v>28.01</v>
+      </c>
+      <c r="Z9">
+        <v>43.1</v>
+      </c>
+      <c r="AA9">
+        <v>28.89</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>5.65</v>
       </c>
-      <c r="R9">
+      <c r="AH9">
         <v>8.18</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>12.18</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>28.08</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>2.83</v>
       </c>
-      <c r="V9">
+      <c r="AL9">
         <v>21.52</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>2.29</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>19.28</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>15.12</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>49.51</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>18.75</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>13.79</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
         <v>2.83</v>
       </c>
+      <c r="AX9">
+        <v>27.17</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>2.83</v>
+      </c>
+      <c r="BA9">
+        <v>26.55</v>
+      </c>
+      <c r="BB9">
+        <v>32.71</v>
+      </c>
+      <c r="BC9">
+        <v>10.74</v>
+      </c>
+      <c r="BD9">
+        <v>23.3</v>
+      </c>
+      <c r="BE9">
+        <v>2.83</v>
+      </c>
+      <c r="BF9">
+        <v>8.48</v>
+      </c>
+      <c r="BG9">
+        <v>4.93</v>
+      </c>
+      <c r="BH9">
+        <v>12.1</v>
+      </c>
+      <c r="BI9">
+        <v>49.52</v>
+      </c>
+      <c r="BJ9">
+        <v>60.7</v>
+      </c>
+      <c r="BK9">
+        <v>17.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>89475</v>
+        <v>101952</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
         <v>202009</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>83739169</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>3689000057</v>
       </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J10">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10">
         <v>4183032000</v>
+      </c>
+      <c r="K10">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
       </c>
       <c r="M10">
         <v>139130406</v>
@@ -1528,96 +2428,186 @@
         <v>906075</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>97.41</v>
       </c>
       <c r="Q10">
+        <v>2.59</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.98</v>
+      </c>
+      <c r="T10">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="U10">
+        <v>28.24</v>
+      </c>
+      <c r="V10">
+        <v>3.01</v>
+      </c>
+      <c r="W10">
+        <v>45.89</v>
+      </c>
+      <c r="X10">
+        <v>2.59</v>
+      </c>
+      <c r="Y10">
+        <v>29.61</v>
+      </c>
+      <c r="Z10">
+        <v>43.57</v>
+      </c>
+      <c r="AA10">
+        <v>26.83</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>7.36</v>
       </c>
-      <c r="R10">
+      <c r="AH10">
         <v>0.78</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>5.43</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>48.11</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>3.68</v>
       </c>
-      <c r="V10">
+      <c r="AL10">
         <v>17.03</v>
       </c>
-      <c r="W10">
+      <c r="AM10">
         <v>10.91</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>6.69</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>37.3</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>48.87</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>5.68</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>4.47</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
         <v>3.68</v>
       </c>
+      <c r="AX10">
+        <v>26.23</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1.84</v>
+      </c>
+      <c r="BA10">
+        <v>46.4</v>
+      </c>
+      <c r="BB10">
+        <v>14.27</v>
+      </c>
+      <c r="BC10">
+        <v>11.25</v>
+      </c>
+      <c r="BD10">
+        <v>37.3</v>
+      </c>
+      <c r="BE10">
+        <v>3.68</v>
+      </c>
+      <c r="BF10">
+        <v>12.34</v>
+      </c>
+      <c r="BG10">
+        <v>3.68</v>
+      </c>
+      <c r="BH10">
+        <v>10.23</v>
+      </c>
+      <c r="BI10">
+        <v>60.11</v>
+      </c>
+      <c r="BJ10">
+        <v>85</v>
+      </c>
+      <c r="BK10">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>100004</v>
+        <v>113907</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
         <v>202010</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>83739169</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>3689000057</v>
       </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J11">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11">
         <v>4183032000</v>
+      </c>
+      <c r="K11">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
       </c>
       <c r="M11">
         <v>223119052</v>
@@ -1629,96 +2619,186 @@
         <v>1045119</v>
       </c>
       <c r="P11">
+        <v>97.12</v>
+      </c>
+      <c r="Q11">
+        <v>2.88</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>22.06</v>
+      </c>
+      <c r="T11">
+        <v>25.72</v>
+      </c>
+      <c r="U11">
+        <v>44.94</v>
+      </c>
+      <c r="V11">
+        <v>1.7</v>
+      </c>
+      <c r="W11">
+        <v>2.7</v>
+      </c>
+      <c r="X11">
+        <v>2.88</v>
+      </c>
+      <c r="Y11">
+        <v>22.85</v>
+      </c>
+      <c r="Z11">
+        <v>56.16</v>
+      </c>
+      <c r="AA11">
+        <v>20.99</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.29</v>
       </c>
-      <c r="Q11">
+      <c r="AG11">
         <v>0.3</v>
       </c>
-      <c r="R11">
+      <c r="AH11">
         <v>14.15</v>
       </c>
-      <c r="S11">
+      <c r="AI11">
         <v>4.25</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>23.69</v>
       </c>
-      <c r="U11">
+      <c r="AK11">
         <v>2.42</v>
       </c>
-      <c r="V11">
+      <c r="AL11">
         <v>13.95</v>
       </c>
-      <c r="W11">
+      <c r="AM11">
         <v>12.22</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>28.73</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
         <v>0.29</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>15.35</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>71.15000000000001</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>8.01</v>
       </c>
-      <c r="AF11">
+      <c r="AV11">
         <v>2.86</v>
       </c>
-      <c r="AG11">
+      <c r="AW11">
         <v>2.33</v>
       </c>
+      <c r="AX11">
+        <v>15.96</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1.01</v>
+      </c>
+      <c r="BA11">
+        <v>39.99</v>
+      </c>
+      <c r="BB11">
+        <v>36.11</v>
+      </c>
+      <c r="BC11">
+        <v>6.93</v>
+      </c>
+      <c r="BD11">
+        <v>20.93</v>
+      </c>
+      <c r="BE11">
+        <v>0.37</v>
+      </c>
+      <c r="BF11">
+        <v>3.57</v>
+      </c>
+      <c r="BG11">
+        <v>2.33</v>
+      </c>
+      <c r="BH11">
+        <v>16.81</v>
+      </c>
+      <c r="BI11">
+        <v>49.51</v>
+      </c>
+      <c r="BJ11">
+        <v>58.6</v>
+      </c>
+      <c r="BK11">
+        <v>24.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>110577</v>
+        <v>125907</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
         <v>202011</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>83739169</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>3689000057</v>
       </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J12">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12">
         <v>4183032000</v>
+      </c>
+      <c r="K12">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
       </c>
       <c r="M12">
         <v>105115182</v>
@@ -1730,96 +2810,186 @@
         <v>926503</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>16.22</v>
+      </c>
+      <c r="T12">
+        <v>54.83</v>
+      </c>
+      <c r="U12">
+        <v>10.16</v>
+      </c>
+      <c r="V12">
+        <v>18.28</v>
+      </c>
+      <c r="W12">
+        <v>0.51</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>17.59</v>
+      </c>
+      <c r="Z12">
+        <v>51.95</v>
+      </c>
+      <c r="AA12">
+        <v>30.46</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <v>41.88</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>8.4</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>15.86</v>
       </c>
-      <c r="U12">
+      <c r="AK12">
         <v>4.91</v>
       </c>
-      <c r="V12">
+      <c r="AL12">
         <v>1.73</v>
       </c>
-      <c r="W12">
+      <c r="AM12">
         <v>16.18</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>1.48</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>9.58</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>1.73</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>70.34</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>21.43</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>6.51</v>
       </c>
+      <c r="AX12">
+        <v>40.05</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>26.39</v>
+      </c>
+      <c r="BB12">
+        <v>15.38</v>
+      </c>
+      <c r="BC12">
+        <v>18.19</v>
+      </c>
+      <c r="BD12">
+        <v>10.2</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>6.63</v>
+      </c>
+      <c r="BG12">
+        <v>4.91</v>
+      </c>
+      <c r="BH12">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="BI12">
+        <v>28.63</v>
+      </c>
+      <c r="BJ12">
+        <v>73.3</v>
+      </c>
+      <c r="BK12">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>121162</v>
+        <v>137911</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
         <v>202012</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>83739169</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>3689000057</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J13">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13">
         <v>4183032000</v>
+      </c>
+      <c r="K13">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
       </c>
       <c r="M13">
         <v>41058910</v>
@@ -1831,96 +3001,186 @@
         <v>361178</v>
       </c>
       <c r="P13">
+        <v>95.27</v>
+      </c>
+      <c r="Q13">
+        <v>4.73</v>
+      </c>
+      <c r="R13">
+        <v>3.15</v>
+      </c>
+      <c r="S13">
+        <v>2.9</v>
+      </c>
+      <c r="T13">
+        <v>36.48</v>
+      </c>
+      <c r="U13">
+        <v>23.59</v>
+      </c>
+      <c r="V13">
+        <v>7.55</v>
+      </c>
+      <c r="W13">
+        <v>26.32</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>18.81</v>
+      </c>
+      <c r="Z13">
+        <v>33.29</v>
+      </c>
+      <c r="AA13">
+        <v>47.9</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>1.58</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>11.04</v>
       </c>
-      <c r="S13">
+      <c r="AI13">
         <v>12.59</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>8.77</v>
       </c>
-      <c r="U13">
+      <c r="AK13">
         <v>12.59</v>
       </c>
-      <c r="V13">
+      <c r="AL13">
         <v>7.31</v>
       </c>
-      <c r="W13">
+      <c r="AM13">
         <v>3.15</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>43</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
         <v>1.58</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>4.43</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>68.89</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>12.32</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
         <v>12.79</v>
       </c>
+      <c r="AX13">
+        <v>21.47</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>14.18</v>
+      </c>
+      <c r="BB13">
+        <v>62.27</v>
+      </c>
+      <c r="BC13">
+        <v>2.08</v>
+      </c>
+      <c r="BD13">
+        <v>16.33</v>
+      </c>
+      <c r="BE13">
+        <v>1.58</v>
+      </c>
+      <c r="BF13">
+        <v>19.89</v>
+      </c>
+      <c r="BG13">
+        <v>16.59</v>
+      </c>
+      <c r="BH13">
+        <v>35.19</v>
+      </c>
+      <c r="BI13">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="BJ13">
+        <v>86.7</v>
+      </c>
+      <c r="BK13">
+        <v>26.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>131764</v>
+        <v>149932</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
         <v>202101</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>83739169</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>3689000057</v>
       </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J14">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14">
         <v>4183032000</v>
+      </c>
+      <c r="K14">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
       </c>
       <c r="M14">
         <v>45560507</v>
@@ -1932,96 +3192,186 @@
         <v>520770</v>
       </c>
       <c r="P14">
+        <v>98.58</v>
+      </c>
+      <c r="Q14">
         <v>1.42</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>43.52</v>
+      </c>
+      <c r="T14">
+        <v>12.25</v>
+      </c>
+      <c r="U14">
+        <v>37.91</v>
+      </c>
+      <c r="V14">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W14">
+        <v>5.76</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>11.3</v>
       </c>
-      <c r="R14">
-        <v>6.52</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>4.67</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>55.27</v>
-      </c>
-      <c r="W14">
-        <v>7.16</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>13.66</v>
-      </c>
       <c r="Z14">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AA14">
+        <v>6.71</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>1.42</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>4.67</v>
-      </c>
-      <c r="AD14">
-        <v>27.41</v>
-      </c>
-      <c r="AE14">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AF14">
-        <v>46.32</v>
       </c>
       <c r="AG14">
         <v>11.3</v>
       </c>
+      <c r="AH14">
+        <v>6.52</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>4.67</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>55.27</v>
+      </c>
+      <c r="AM14">
+        <v>7.16</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>13.66</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>1.42</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>4.67</v>
+      </c>
+      <c r="AT14">
+        <v>27.41</v>
+      </c>
+      <c r="AU14">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AV14">
+        <v>46.32</v>
+      </c>
+      <c r="AW14">
+        <v>11.3</v>
+      </c>
+      <c r="AX14">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>13.68</v>
+      </c>
+      <c r="BB14">
+        <v>17.48</v>
+      </c>
+      <c r="BC14">
+        <v>0.85</v>
+      </c>
+      <c r="BD14">
+        <v>11.19</v>
+      </c>
+      <c r="BE14">
+        <v>1.42</v>
+      </c>
+      <c r="BF14">
+        <v>24.58</v>
+      </c>
+      <c r="BG14">
+        <v>14.81</v>
+      </c>
+      <c r="BH14">
+        <v>20.22</v>
+      </c>
+      <c r="BI14">
+        <v>45.21</v>
+      </c>
+      <c r="BJ14">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="BK14">
+        <v>15.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>142388</v>
+        <v>161977</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
         <v>202102</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>83739169</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>3689000057</v>
       </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J15">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15">
         <v>4183032000</v>
+      </c>
+      <c r="K15">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
       </c>
       <c r="M15">
         <v>166369926</v>
@@ -2033,96 +3383,186 @@
         <v>2206171</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>26.71</v>
+      </c>
+      <c r="T15">
+        <v>37.78</v>
+      </c>
+      <c r="U15">
+        <v>19.51</v>
+      </c>
+      <c r="V15">
+        <v>7.94</v>
+      </c>
+      <c r="W15">
+        <v>8.06</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>3.24</v>
+      </c>
+      <c r="Z15">
+        <v>39.91</v>
+      </c>
+      <c r="AA15">
+        <v>56.85</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>3.35</v>
       </c>
-      <c r="R15">
+      <c r="AH15">
         <v>24.86</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>0.79</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>26.43</v>
       </c>
-      <c r="W15">
+      <c r="AM15">
         <v>0.84</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>43.74</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>0.59</v>
       </c>
-      <c r="AD15">
+      <c r="AT15">
         <v>14.9</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>66.08</v>
       </c>
-      <c r="AF15">
+      <c r="AV15">
         <v>14.88</v>
       </c>
-      <c r="AG15">
+      <c r="AW15">
         <v>3.55</v>
       </c>
+      <c r="AX15">
+        <v>29.78</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>25.69</v>
+      </c>
+      <c r="BB15">
+        <v>24.75</v>
+      </c>
+      <c r="BC15">
+        <v>19.77</v>
+      </c>
+      <c r="BD15">
+        <v>25.45</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>6.69</v>
+      </c>
+      <c r="BG15">
+        <v>4.18</v>
+      </c>
+      <c r="BH15">
+        <v>4.77</v>
+      </c>
+      <c r="BI15">
+        <v>32.98</v>
+      </c>
+      <c r="BJ15">
+        <v>66.7</v>
+      </c>
+      <c r="BK15">
+        <v>16.7</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>153032</v>
+        <v>174044</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16">
         <v>202103</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>83739169</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>3689000057</v>
       </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J16">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16">
         <v>4183032000</v>
+      </c>
+      <c r="K16">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
       </c>
       <c r="M16">
         <v>85765091</v>
@@ -2134,96 +3574,186 @@
         <v>1199739</v>
       </c>
       <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.21</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>71.41</v>
+      </c>
+      <c r="V16">
+        <v>3.69</v>
+      </c>
+      <c r="W16">
+        <v>23.68</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>12.8</v>
+      </c>
+      <c r="Z16">
+        <v>6.1</v>
+      </c>
+      <c r="AA16">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>0.75</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>5.41</v>
       </c>
-      <c r="S16">
+      <c r="AI16">
         <v>3.69</v>
       </c>
-      <c r="T16">
+      <c r="AJ16">
         <v>3.21</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>34.83</v>
       </c>
-      <c r="W16">
+      <c r="AM16">
         <v>1.49</v>
       </c>
-      <c r="X16">
+      <c r="AN16">
         <v>0.03</v>
       </c>
-      <c r="Y16">
+      <c r="AO16">
         <v>50.58</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>0.9</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>15.29</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>61.02</v>
       </c>
-      <c r="AF16">
+      <c r="AV16">
         <v>22.78</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>37.07</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>5.44</v>
+      </c>
+      <c r="BB16">
+        <v>57.49</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>5.26</v>
+      </c>
+      <c r="BE16">
+        <v>0.75</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>1.49</v>
+      </c>
+      <c r="BH16">
+        <v>5.54</v>
+      </c>
+      <c r="BI16">
+        <v>10.8</v>
+      </c>
+      <c r="BJ16">
+        <v>63.6</v>
+      </c>
+      <c r="BK16">
+        <v>18.2</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>163735</v>
+        <v>186167</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
         <v>202104</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>83739169</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>3689000057</v>
       </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J17">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17">
         <v>4183032000</v>
+      </c>
+      <c r="K17">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
       </c>
       <c r="M17">
         <v>136325096</v>
@@ -2235,96 +3765,186 @@
         <v>2023273</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>32.32</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>32.32</v>
       </c>
       <c r="S17">
+        <v>41.1</v>
+      </c>
+      <c r="T17">
+        <v>2.14</v>
+      </c>
+      <c r="U17">
+        <v>7.72</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>16.73</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>2.53</v>
+      </c>
+      <c r="Z17">
+        <v>28.81</v>
+      </c>
+      <c r="AA17">
+        <v>2.15</v>
+      </c>
+      <c r="AB17">
+        <v>66.5</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>0.34</v>
       </c>
-      <c r="T17">
+      <c r="AJ17">
         <v>2.28</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>52.81</v>
       </c>
-      <c r="W17">
+      <c r="AM17">
         <v>0.96</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>43.6</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>1.05</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>41</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>43.76</v>
       </c>
-      <c r="AF17">
+      <c r="AV17">
         <v>14.2</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>53.77</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0.19</v>
+      </c>
+      <c r="BB17">
+        <v>44.63</v>
+      </c>
+      <c r="BC17">
+        <v>1.41</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0.96</v>
+      </c>
+      <c r="BH17">
+        <v>1.89</v>
+      </c>
+      <c r="BI17">
+        <v>36.21</v>
+      </c>
+      <c r="BJ17">
+        <v>50</v>
+      </c>
+      <c r="BK17">
+        <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>174468</v>
+        <v>198321</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
         <v>202105</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>83739169</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>3689000057</v>
       </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J18">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18">
         <v>4183032000</v>
+      </c>
+      <c r="K18">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
       </c>
       <c r="M18">
         <v>100420971</v>
@@ -2336,96 +3956,186 @@
         <v>1567848</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>83.58</v>
       </c>
       <c r="Q18">
+        <v>16.42</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>6.75</v>
+      </c>
+      <c r="T18">
+        <v>21.35</v>
+      </c>
+      <c r="U18">
+        <v>28.52</v>
+      </c>
+      <c r="V18">
+        <v>36.78</v>
+      </c>
+      <c r="W18">
+        <v>6.59</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>23.18</v>
+      </c>
+      <c r="Z18">
+        <v>71.53</v>
+      </c>
+      <c r="AA18">
+        <v>1.75</v>
+      </c>
+      <c r="AB18">
+        <v>3.55</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>17.34</v>
       </c>
-      <c r="R18">
+      <c r="AH18">
         <v>1.35</v>
       </c>
-      <c r="S18">
+      <c r="AI18">
         <v>3.81</v>
       </c>
-      <c r="T18">
+      <c r="AJ18">
         <v>8.84</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>55.83</v>
       </c>
-      <c r="W18">
+      <c r="AM18">
         <v>12.84</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>44.03</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>22.56</v>
       </c>
-      <c r="AF18">
+      <c r="AV18">
         <v>33.41</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>55.83</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>31.53</v>
+      </c>
+      <c r="BB18">
+        <v>3.81</v>
+      </c>
+      <c r="BC18">
+        <v>8.84</v>
+      </c>
+      <c r="BD18">
+        <v>1.35</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>17.34</v>
+      </c>
+      <c r="BI18">
+        <v>59.53</v>
+      </c>
+      <c r="BJ18">
+        <v>45.5</v>
+      </c>
+      <c r="BK18">
+        <v>9.1</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>185238</v>
+        <v>210510</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
         <v>202106</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>83739169</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>3689000057</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J19">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19">
         <v>4183032000</v>
+      </c>
+      <c r="K19">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L19" t="s">
+        <v>95</v>
       </c>
       <c r="M19">
         <v>120413095</v>
@@ -2437,96 +4147,186 @@
         <v>2304704</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>85.83</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>14.17</v>
       </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>27.81</v>
+      </c>
+      <c r="U19">
+        <v>28.55</v>
+      </c>
+      <c r="V19">
+        <v>29.47</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>14.17</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>49.13</v>
+      </c>
+      <c r="AA19">
+        <v>50.87</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <v>14.28</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>19.87</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>50.6</v>
       </c>
-      <c r="W19">
+      <c r="AM19">
         <v>1.08</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>14.17</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
         <v>40.02</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>43.63</v>
       </c>
-      <c r="AF19">
+      <c r="AV19">
         <v>16.34</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>63.15</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>14.28</v>
+      </c>
+      <c r="BB19">
+        <v>14.17</v>
+      </c>
+      <c r="BC19">
+        <v>8.4</v>
+      </c>
+      <c r="BD19">
+        <v>14.28</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>1.08</v>
+      </c>
+      <c r="BH19">
+        <v>1.08</v>
+      </c>
+      <c r="BI19">
+        <v>42.02</v>
+      </c>
+      <c r="BJ19">
+        <v>77.8</v>
+      </c>
+      <c r="BK19">
+        <v>11.1</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>196034</v>
+        <v>222731</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
         <v>202107</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>83739169</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>3689000057</v>
       </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J20">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20">
         <v>4183032000</v>
+      </c>
+      <c r="K20">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L20" t="s">
+        <v>95</v>
       </c>
       <c r="M20">
         <v>75392756</v>
@@ -2538,96 +4338,186 @@
         <v>1341294</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>25.16</v>
+      </c>
+      <c r="T20">
+        <v>54</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="W20">
+        <v>12.21</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>22.09</v>
+      </c>
+      <c r="Z20">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>2.4</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>11.02</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>28.01</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
         <v>43.82</v>
       </c>
-      <c r="W20">
+      <c r="AM20">
         <v>17.15</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
         <v>41.56</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>45.38</v>
       </c>
-      <c r="AF20">
+      <c r="AV20">
         <v>13.06</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>45.52</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>15.46</v>
+      </c>
+      <c r="BA20">
+        <v>11.02</v>
+      </c>
+      <c r="BB20">
+        <v>0.48</v>
+      </c>
+      <c r="BC20">
+        <v>27.53</v>
+      </c>
+      <c r="BD20">
+        <v>11.02</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>9.94</v>
+      </c>
+      <c r="BG20">
+        <v>1.69</v>
+      </c>
+      <c r="BH20">
+        <v>4.1</v>
+      </c>
+      <c r="BI20">
+        <v>72.47</v>
+      </c>
+      <c r="BJ20">
+        <v>55.6</v>
+      </c>
+      <c r="BK20">
+        <v>22.2</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>210649</v>
+        <v>239193</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
         <v>202108</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>123833048</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>3089201679</v>
       </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J21">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21">
         <v>4183032000</v>
+      </c>
+      <c r="K21">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
       </c>
       <c r="M21">
         <v>56196965</v>
@@ -2639,96 +4529,186 @@
         <v>885595</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.33</v>
+      </c>
+      <c r="T21">
+        <v>3.22</v>
+      </c>
+      <c r="U21">
+        <v>44.71</v>
+      </c>
+      <c r="V21">
+        <v>13.08</v>
+      </c>
+      <c r="W21">
+        <v>26.67</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>17.58</v>
+      </c>
+      <c r="Z21">
+        <v>47.92</v>
+      </c>
+      <c r="AA21">
+        <v>34.49</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>26.13</v>
       </c>
-      <c r="S21">
+      <c r="AI21">
         <v>6.38</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>14.7</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>52.78</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>4.86</v>
       </c>
-      <c r="AD21">
+      <c r="AT21">
         <v>27.68</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>21.27</v>
       </c>
-      <c r="AF21">
+      <c r="AV21">
         <v>46.19</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>1.83</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>46.19</v>
+      </c>
+      <c r="BA21">
+        <v>30.9</v>
+      </c>
+      <c r="BB21">
+        <v>8.01</v>
+      </c>
+      <c r="BC21">
+        <v>13.08</v>
+      </c>
+      <c r="BD21">
+        <v>21.17</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>1.73</v>
+      </c>
+      <c r="BI21">
+        <v>83.45</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>9.1</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>221534</v>
+        <v>251507</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
         <v>202109</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>123833048</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>3089201679</v>
       </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J22">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22">
         <v>4183032000</v>
+      </c>
+      <c r="K22">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L22" t="s">
+        <v>95</v>
       </c>
       <c r="M22">
         <v>159473673</v>
@@ -2740,96 +4720,186 @@
         <v>1426737</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>89.7</v>
       </c>
       <c r="Q22">
+        <v>10.3</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>38.07</v>
+      </c>
+      <c r="U22">
+        <v>2.84</v>
+      </c>
+      <c r="V22">
+        <v>13.05</v>
+      </c>
+      <c r="W22">
+        <v>35.74</v>
+      </c>
+      <c r="X22">
+        <v>10.3</v>
+      </c>
+      <c r="Y22">
+        <v>51.42</v>
+      </c>
+      <c r="Z22">
+        <v>40.69</v>
+      </c>
+      <c r="AA22">
+        <v>7.89</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>1.68</v>
       </c>
-      <c r="R22">
+      <c r="AH22">
         <v>24.8</v>
       </c>
-      <c r="S22">
+      <c r="AI22">
         <v>17.63</v>
       </c>
-      <c r="T22">
+      <c r="AJ22">
         <v>10.89</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>0.31</v>
       </c>
-      <c r="W22">
+      <c r="AM22">
         <v>1.67</v>
       </c>
-      <c r="X22">
+      <c r="AN22">
         <v>40.35</v>
       </c>
-      <c r="Y22">
+      <c r="AO22">
         <v>2.67</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>17.04</v>
       </c>
-      <c r="AD22">
+      <c r="AT22">
         <v>28.01</v>
       </c>
-      <c r="AE22">
+      <c r="AU22">
         <v>25.97</v>
       </c>
-      <c r="AF22">
+      <c r="AV22">
         <v>28.98</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>3.46</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>1.68</v>
+      </c>
+      <c r="BA22">
+        <v>63.68</v>
+      </c>
+      <c r="BB22">
+        <v>18.63</v>
+      </c>
+      <c r="BC22">
+        <v>12.56</v>
+      </c>
+      <c r="BD22">
+        <v>20.99</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0.31</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>1.68</v>
+      </c>
+      <c r="BI22">
+        <v>62.03</v>
+      </c>
+      <c r="BJ22">
+        <v>50</v>
+      </c>
+      <c r="BK22">
+        <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>232457</v>
+        <v>263865</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
         <v>202110</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>123833048</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>3089201679</v>
       </c>
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J23">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23">
         <v>4183032000</v>
+      </c>
+      <c r="K23">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
       </c>
       <c r="M23">
         <v>210952677</v>
@@ -2841,96 +4911,186 @@
         <v>1391623</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>70.62</v>
       </c>
       <c r="Q23">
+        <v>29.38</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.41</v>
+      </c>
+      <c r="T23">
+        <v>16.3</v>
+      </c>
+      <c r="U23">
+        <v>18.05</v>
+      </c>
+      <c r="V23">
+        <v>9.98</v>
+      </c>
+      <c r="W23">
+        <v>23.49</v>
+      </c>
+      <c r="X23">
+        <v>16.77</v>
+      </c>
+      <c r="Y23">
+        <v>22.85</v>
+      </c>
+      <c r="Z23">
+        <v>50.02</v>
+      </c>
+      <c r="AA23">
+        <v>27.13</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>2.79</v>
       </c>
-      <c r="R23">
+      <c r="AH23">
         <v>16.95</v>
       </c>
-      <c r="S23">
+      <c r="AI23">
         <v>34.52</v>
       </c>
-      <c r="T23">
+      <c r="AJ23">
         <v>14.02</v>
       </c>
-      <c r="U23">
+      <c r="AK23">
         <v>2.48</v>
       </c>
-      <c r="V23">
+      <c r="AL23">
         <v>0.96</v>
       </c>
-      <c r="W23">
+      <c r="AM23">
         <v>2.48</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>17.92</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>7.87</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>11.07</v>
       </c>
-      <c r="AD23">
+      <c r="AT23">
         <v>33.49</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>44.8</v>
       </c>
-      <c r="AF23">
+      <c r="AV23">
         <v>3.23</v>
       </c>
-      <c r="AG23">
+      <c r="AW23">
         <v>7.41</v>
       </c>
+      <c r="AX23">
+        <v>7.52</v>
+      </c>
+      <c r="AY23">
+        <v>2.48</v>
+      </c>
+      <c r="AZ23">
+        <v>0.48</v>
+      </c>
+      <c r="BA23">
+        <v>48.58</v>
+      </c>
+      <c r="BB23">
+        <v>31.41</v>
+      </c>
+      <c r="BC23">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>2.48</v>
+      </c>
+      <c r="BF23">
+        <v>0.96</v>
+      </c>
+      <c r="BG23">
+        <v>0.44</v>
+      </c>
+      <c r="BH23">
+        <v>7.72</v>
+      </c>
+      <c r="BI23">
+        <v>33.3</v>
+      </c>
+      <c r="BJ23">
+        <v>42.3</v>
+      </c>
+      <c r="BK23">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>243418</v>
+        <v>276249</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24">
         <v>202111</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>123833048</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>3089201679</v>
       </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J24">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24">
         <v>4183032000</v>
+      </c>
+      <c r="K24">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
       </c>
       <c r="M24">
         <v>260909961</v>
@@ -2942,96 +5102,186 @@
         <v>1681349</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>98.67</v>
       </c>
       <c r="Q24">
+        <v>1.33</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.77</v>
+      </c>
+      <c r="T24">
+        <v>47.04</v>
+      </c>
+      <c r="U24">
+        <v>32.17</v>
+      </c>
+      <c r="V24">
+        <v>3.92</v>
+      </c>
+      <c r="W24">
+        <v>2.78</v>
+      </c>
+      <c r="X24">
+        <v>1.33</v>
+      </c>
+      <c r="Y24">
+        <v>53.8</v>
+      </c>
+      <c r="Z24">
+        <v>20.16</v>
+      </c>
+      <c r="AA24">
+        <v>26.04</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>4.49</v>
       </c>
-      <c r="R24">
+      <c r="AH24">
         <v>11.83</v>
       </c>
-      <c r="S24">
+      <c r="AI24">
         <v>19.88</v>
       </c>
-      <c r="T24">
+      <c r="AJ24">
         <v>18.74</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>0.96</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>34.06</v>
       </c>
-      <c r="Y24">
+      <c r="AO24">
         <v>10.04</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>0.62</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
         <v>30.96</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>16.52</v>
       </c>
-      <c r="AF24">
+      <c r="AV24">
         <v>44.53</v>
       </c>
-      <c r="AG24">
+      <c r="AW24">
         <v>7.37</v>
       </c>
+      <c r="AX24">
+        <v>0.96</v>
+      </c>
+      <c r="AY24">
+        <v>2.05</v>
+      </c>
+      <c r="AZ24">
+        <v>2.43</v>
+      </c>
+      <c r="BA24">
+        <v>45.89</v>
+      </c>
+      <c r="BB24">
+        <v>30.54</v>
+      </c>
+      <c r="BC24">
+        <v>18.12</v>
+      </c>
+      <c r="BD24">
+        <v>10.87</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0.84</v>
+      </c>
+      <c r="BG24">
+        <v>0.5</v>
+      </c>
+      <c r="BH24">
+        <v>0.89</v>
+      </c>
+      <c r="BI24">
+        <v>61.2</v>
+      </c>
+      <c r="BJ24">
+        <v>77.3</v>
+      </c>
+      <c r="BK24">
+        <v>22.7</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>254396</v>
+        <v>288653</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25">
         <v>202112</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>123833048</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>3089201679</v>
       </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J25">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25">
         <v>4183032000</v>
+      </c>
+      <c r="K25">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L25" t="s">
+        <v>95</v>
       </c>
       <c r="M25">
         <v>187034007</v>
@@ -3043,96 +5293,186 @@
         <v>1596561</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>63.72</v>
       </c>
       <c r="Q25">
+        <v>36.28</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="T25">
+        <v>4.21</v>
+      </c>
+      <c r="U25">
+        <v>10.03</v>
+      </c>
+      <c r="V25">
+        <v>23.54</v>
+      </c>
+      <c r="W25">
+        <v>16.41</v>
+      </c>
+      <c r="X25">
+        <v>36.28</v>
+      </c>
+      <c r="Y25">
+        <v>39.77</v>
+      </c>
+      <c r="Z25">
+        <v>7.64</v>
+      </c>
+      <c r="AA25">
+        <v>52.59</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>3.35</v>
       </c>
-      <c r="R25">
+      <c r="AH25">
         <v>22.76</v>
       </c>
-      <c r="S25">
+      <c r="AI25">
         <v>22.42</v>
       </c>
-      <c r="T25">
+      <c r="AJ25">
         <v>9.380000000000001</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>0.35</v>
       </c>
-      <c r="W25">
+      <c r="AM25">
         <v>0.02</v>
       </c>
-      <c r="X25">
+      <c r="AN25">
         <v>29.52</v>
       </c>
-      <c r="Y25">
+      <c r="AO25">
         <v>12.2</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>1.54</v>
       </c>
-      <c r="AD25">
+      <c r="AT25">
         <v>14.75</v>
       </c>
-      <c r="AE25">
+      <c r="AU25">
         <v>29.15</v>
       </c>
-      <c r="AF25">
+      <c r="AV25">
         <v>45.18</v>
       </c>
-      <c r="AG25">
+      <c r="AW25">
         <v>9.380000000000001</v>
       </c>
+      <c r="AX25">
+        <v>0.32</v>
+      </c>
+      <c r="AY25">
+        <v>2.85</v>
+      </c>
+      <c r="AZ25">
+        <v>0.53</v>
+      </c>
+      <c r="BA25">
+        <v>52.3</v>
+      </c>
+      <c r="BB25">
+        <v>36.34</v>
+      </c>
+      <c r="BC25">
+        <v>7.67</v>
+      </c>
+      <c r="BD25">
+        <v>0.85</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0.32</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>1.19</v>
+      </c>
+      <c r="BI25">
+        <v>51.65</v>
+      </c>
+      <c r="BJ25">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="BK25">
+        <v>11.8</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>265382</v>
+        <v>301055</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26">
         <v>202201</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2022</v>
       </c>
-      <c r="E26">
-        <v>123833048</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>3089201679</v>
       </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J26">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26">
         <v>4183032000</v>
+      </c>
+      <c r="K26">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L26" t="s">
+        <v>95</v>
       </c>
       <c r="M26">
         <v>158396692</v>
@@ -3144,96 +5484,186 @@
         <v>1695134</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="Q26">
+        <v>2.76</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>40.75</v>
+      </c>
+      <c r="T26">
+        <v>52.06</v>
+      </c>
+      <c r="U26">
+        <v>2.85</v>
+      </c>
+      <c r="V26">
+        <v>1.59</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>2.76</v>
+      </c>
+      <c r="Y26">
+        <v>2.76</v>
+      </c>
+      <c r="Z26">
+        <v>39.91</v>
+      </c>
+      <c r="AA26">
+        <v>57.34</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>3.88</v>
       </c>
-      <c r="R26">
+      <c r="AH26">
         <v>3.47</v>
       </c>
-      <c r="S26">
+      <c r="AI26">
         <v>18.06</v>
       </c>
-      <c r="T26">
+      <c r="AJ26">
         <v>9.779999999999999</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
         <v>2.87</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
         <v>40.91</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>21.03</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>2.77</v>
       </c>
-      <c r="AD26">
+      <c r="AT26">
         <v>10.5</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>40.54</v>
       </c>
-      <c r="AF26">
+      <c r="AV26">
         <v>28.46</v>
       </c>
-      <c r="AG26">
+      <c r="AW26">
         <v>17.74</v>
       </c>
+      <c r="AX26">
+        <v>2.87</v>
+      </c>
+      <c r="AY26">
+        <v>3.3</v>
+      </c>
+      <c r="AZ26">
+        <v>0.58</v>
+      </c>
+      <c r="BA26">
+        <v>44.56</v>
+      </c>
+      <c r="BB26">
+        <v>40.08</v>
+      </c>
+      <c r="BC26">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="BD26">
+        <v>0.99</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>2.87</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>11.17</v>
+      </c>
+      <c r="BI26">
+        <v>59.01</v>
+      </c>
+      <c r="BJ26">
+        <v>81.3</v>
+      </c>
+      <c r="BK26">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>276412</v>
+        <v>313508</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
         <v>202202</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2022</v>
       </c>
-      <c r="E27">
-        <v>123833048</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>3089201679</v>
       </c>
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J27">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K27" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27">
         <v>4183032000</v>
+      </c>
+      <c r="K27">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L27" t="s">
+        <v>95</v>
       </c>
       <c r="M27">
         <v>195075683</v>
@@ -3245,96 +5675,186 @@
         <v>2099898</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>99.48</v>
       </c>
       <c r="Q27">
-        <v>2.65</v>
+        <v>0.52</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>15.8</v>
+        <v>15.28</v>
       </c>
       <c r="T27">
-        <v>10.47</v>
+        <v>2.57</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>30.64</v>
       </c>
       <c r="V27">
+        <v>9.09</v>
+      </c>
+      <c r="W27">
+        <v>41.9</v>
+      </c>
+      <c r="X27">
         <v>0.52</v>
       </c>
-      <c r="W27">
-        <v>0.47</v>
-      </c>
-      <c r="X27">
-        <v>53.04</v>
-      </c>
       <c r="Y27">
-        <v>11.05</v>
+        <v>17.14</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>66.66</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>18.72</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>61.18</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>16.66</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>2.65</v>
       </c>
+      <c r="AH27">
+        <v>6</v>
+      </c>
+      <c r="AI27">
+        <v>15.8</v>
+      </c>
+      <c r="AJ27">
+        <v>10.47</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0.52</v>
+      </c>
+      <c r="AM27">
+        <v>0.47</v>
+      </c>
+      <c r="AN27">
+        <v>53.04</v>
+      </c>
+      <c r="AO27">
+        <v>11.05</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0.79</v>
+      </c>
+      <c r="AT27">
+        <v>18.72</v>
+      </c>
+      <c r="AU27">
+        <v>61.18</v>
+      </c>
+      <c r="AV27">
+        <v>16.66</v>
+      </c>
+      <c r="AW27">
+        <v>2.65</v>
+      </c>
+      <c r="AX27">
+        <v>10.67</v>
+      </c>
+      <c r="AY27">
+        <v>2.65</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>59.03</v>
+      </c>
+      <c r="BB27">
+        <v>27.65</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0.79</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0.52</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>14.96</v>
+      </c>
+      <c r="BI27">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="BJ27">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="BK27">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>287484</v>
+        <v>325997</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
         <v>202203</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2022</v>
       </c>
-      <c r="E28">
-        <v>123833048</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>3089201679</v>
       </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J28">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28">
         <v>4183032000</v>
+      </c>
+      <c r="K28">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L28" t="s">
+        <v>95</v>
       </c>
       <c r="M28">
         <v>90977004</v>
@@ -3346,96 +5866,186 @@
         <v>1056575</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1.67</v>
+      </c>
+      <c r="T28">
+        <v>8.09</v>
+      </c>
+      <c r="U28">
+        <v>40</v>
+      </c>
+      <c r="V28">
+        <v>17.27</v>
+      </c>
+      <c r="W28">
+        <v>32.96</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>24.28</v>
+      </c>
+      <c r="Z28">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="AA28">
+        <v>5.51</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
         <v>13.11</v>
       </c>
-      <c r="R28">
+      <c r="AH28">
         <v>21.02</v>
       </c>
-      <c r="S28">
+      <c r="AI28">
         <v>14.37</v>
       </c>
-      <c r="T28">
+      <c r="AJ28">
         <v>2.01</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
         <v>1.67</v>
       </c>
-      <c r="X28">
+      <c r="AN28">
         <v>14.42</v>
       </c>
-      <c r="Y28">
+      <c r="AO28">
         <v>33.4</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>1.67</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>66.16</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>11.47</v>
       </c>
-      <c r="AF28">
+      <c r="AV28">
         <v>15.13</v>
       </c>
-      <c r="AG28">
+      <c r="AW28">
         <v>5.57</v>
       </c>
+      <c r="AX28">
+        <v>1.67</v>
+      </c>
+      <c r="AY28">
+        <v>5.57</v>
+      </c>
+      <c r="AZ28">
+        <v>7.54</v>
+      </c>
+      <c r="BA28">
+        <v>35.78</v>
+      </c>
+      <c r="BB28">
+        <v>49.44</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>1.67</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>1.67</v>
+      </c>
+      <c r="BH28">
+        <v>18.06</v>
+      </c>
+      <c r="BI28">
+        <v>48.62</v>
+      </c>
+      <c r="BJ28">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="BK28">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>298595</v>
+        <v>338554</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
         <v>202204</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2022</v>
       </c>
-      <c r="E29">
-        <v>123833048</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>3089201679</v>
       </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J29">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K29" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29">
         <v>4183032000</v>
+      </c>
+      <c r="K29">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
       </c>
       <c r="M29">
         <v>126046035</v>
@@ -3447,96 +6057,186 @@
         <v>880844</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>98.92</v>
       </c>
       <c r="Q29">
+        <v>1.08</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>17.42</v>
+      </c>
+      <c r="T29">
+        <v>13.18</v>
+      </c>
+      <c r="U29">
+        <v>29.91</v>
+      </c>
+      <c r="V29">
+        <v>12.46</v>
+      </c>
+      <c r="W29">
+        <v>25.95</v>
+      </c>
+      <c r="X29">
+        <v>1.08</v>
+      </c>
+      <c r="Y29">
+        <v>26.83</v>
+      </c>
+      <c r="Z29">
+        <v>46.66</v>
+      </c>
+      <c r="AA29">
+        <v>26.52</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
         <v>8.199999999999999</v>
       </c>
-      <c r="R29">
+      <c r="AH29">
         <v>25.64</v>
       </c>
-      <c r="S29">
+      <c r="AI29">
         <v>22.23</v>
       </c>
-      <c r="T29">
+      <c r="AJ29">
         <v>10.8</v>
       </c>
-      <c r="U29">
+      <c r="AK29">
         <v>3.98</v>
       </c>
-      <c r="V29">
+      <c r="AL29">
         <v>1.22</v>
       </c>
-      <c r="W29">
+      <c r="AM29">
         <v>1.22</v>
       </c>
-      <c r="X29">
+      <c r="AN29">
         <v>8.109999999999999</v>
       </c>
-      <c r="Y29">
+      <c r="AO29">
         <v>18.61</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>1.22</v>
       </c>
-      <c r="AD29">
+      <c r="AT29">
         <v>24.73</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>11.6</v>
       </c>
-      <c r="AF29">
+      <c r="AV29">
         <v>43.69</v>
       </c>
-      <c r="AG29">
+      <c r="AW29">
         <v>18.76</v>
       </c>
+      <c r="AX29">
+        <v>7.71</v>
+      </c>
+      <c r="AY29">
+        <v>4.05</v>
+      </c>
+      <c r="AZ29">
+        <v>16.24</v>
+      </c>
+      <c r="BA29">
+        <v>22.31</v>
+      </c>
+      <c r="BB29">
+        <v>28.61</v>
+      </c>
+      <c r="BC29">
+        <v>21.07</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>5.28</v>
+      </c>
+      <c r="BG29">
+        <v>5.27</v>
+      </c>
+      <c r="BH29">
+        <v>12.37</v>
+      </c>
+      <c r="BI29">
+        <v>45.18</v>
+      </c>
+      <c r="BJ29">
+        <v>52.4</v>
+      </c>
+      <c r="BK29">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>309719</v>
+        <v>351182</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30">
         <v>202205</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2022</v>
       </c>
-      <c r="E30">
-        <v>123833048</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>3089201679</v>
       </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J30">
-        <v>1713.342424242424</v>
-      </c>
-      <c r="K30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30">
         <v>4183032000</v>
+      </c>
+      <c r="K30">
+        <v>1526.851515151515</v>
+      </c>
+      <c r="L30" t="s">
+        <v>95</v>
       </c>
       <c r="M30">
         <v>117656478</v>
@@ -3548,58 +6248,148 @@
         <v>852310</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>99.25</v>
       </c>
       <c r="Q30">
+        <v>0.75</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>23.03</v>
+      </c>
+      <c r="T30">
+        <v>42.59</v>
+      </c>
+      <c r="U30">
+        <v>10.88</v>
+      </c>
+      <c r="V30">
+        <v>3.96</v>
+      </c>
+      <c r="W30">
+        <v>18.79</v>
+      </c>
+      <c r="X30">
+        <v>0.75</v>
+      </c>
+      <c r="Y30">
+        <v>17.62</v>
+      </c>
+      <c r="Z30">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AA30">
+        <v>17.15</v>
+      </c>
+      <c r="AB30">
+        <v>0.75</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <v>8.69</v>
       </c>
-      <c r="R30">
+      <c r="AH30">
         <v>17.2</v>
       </c>
-      <c r="S30">
+      <c r="AI30">
         <v>31.87</v>
       </c>
-      <c r="T30">
+      <c r="AJ30">
         <v>7.19</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
         <v>4.35</v>
       </c>
-      <c r="W30">
+      <c r="AM30">
         <v>1.3</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>8.69</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>20.71</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
         <v>49.73</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>13.04</v>
       </c>
-      <c r="AF30">
+      <c r="AV30">
         <v>14.07</v>
       </c>
-      <c r="AG30">
+      <c r="AW30">
         <v>23.16</v>
+      </c>
+      <c r="AX30">
+        <v>5.65</v>
+      </c>
+      <c r="AY30">
+        <v>4.35</v>
+      </c>
+      <c r="AZ30">
+        <v>4.35</v>
+      </c>
+      <c r="BA30">
+        <v>43.28</v>
+      </c>
+      <c r="BB30">
+        <v>19.57</v>
+      </c>
+      <c r="BC30">
+        <v>22.82</v>
+      </c>
+      <c r="BD30">
+        <v>2.63</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>4.35</v>
+      </c>
+      <c r="BG30">
+        <v>5.65</v>
+      </c>
+      <c r="BH30">
+        <v>28.11</v>
+      </c>
+      <c r="BI30">
+        <v>44.43</v>
+      </c>
+      <c r="BJ30">
+        <v>88.2</v>
+      </c>
+      <c r="BK30">
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4183032000.xlsx
+++ b/시장분석용_정보/시장분석용_4183032000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>7281</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>3689000057</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4183032000</v>
@@ -708,7 +612,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>355196865</v>
@@ -720,117 +624,69 @@
         <v>1291978</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>1.19</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10.99</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>18.23</v>
       </c>
       <c r="R2">
-        <v>53.35</v>
+        <v>10.99</v>
       </c>
       <c r="S2">
-        <v>8.76</v>
+        <v>5.48</v>
       </c>
       <c r="T2">
-        <v>12.89</v>
+        <v>3.18</v>
       </c>
       <c r="U2">
-        <v>17.54</v>
+        <v>5.54</v>
       </c>
       <c r="V2">
-        <v>7.45</v>
+        <v>12.28</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="X2">
-        <v>25.32</v>
+        <v>12.81</v>
       </c>
       <c r="Y2">
-        <v>25.26</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>49.42</v>
+        <v>0.26</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>42.01</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>40.26</v>
       </c>
       <c r="AE2">
-        <v>1.19</v>
+        <v>9.93</v>
       </c>
       <c r="AF2">
-        <v>10.99</v>
-      </c>
-      <c r="AG2">
-        <v>18.23</v>
-      </c>
-      <c r="AH2">
-        <v>10.99</v>
-      </c>
-      <c r="AI2">
-        <v>5.48</v>
-      </c>
-      <c r="AJ2">
-        <v>3.18</v>
-      </c>
-      <c r="AK2">
-        <v>5.54</v>
-      </c>
-      <c r="AL2">
-        <v>12.28</v>
-      </c>
-      <c r="AM2">
-        <v>19.3</v>
-      </c>
-      <c r="AN2">
-        <v>12.81</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0.26</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>6.08</v>
-      </c>
-      <c r="AS2">
-        <v>42.01</v>
-      </c>
-      <c r="AT2">
-        <v>40.26</v>
-      </c>
-      <c r="AU2">
-        <v>9.93</v>
-      </c>
-      <c r="AV2">
         <v>1.46</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>19025</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>3689000057</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4183032000</v>
@@ -854,7 +710,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>270707473</v>
@@ -866,117 +722,69 @@
         <v>1220966</v>
       </c>
       <c r="O3">
-        <v>87.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P3">
-        <v>12.92</v>
+        <v>7.37</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>19.47</v>
       </c>
       <c r="R3">
-        <v>29.99</v>
+        <v>5.77</v>
       </c>
       <c r="S3">
-        <v>35.28</v>
+        <v>16.25</v>
       </c>
       <c r="T3">
-        <v>7.48</v>
+        <v>5.52</v>
       </c>
       <c r="U3">
-        <v>5.79</v>
+        <v>3.08</v>
       </c>
       <c r="V3">
-        <v>8.550000000000001</v>
+        <v>18.41</v>
       </c>
       <c r="W3">
-        <v>12.92</v>
+        <v>8.57</v>
       </c>
       <c r="X3">
-        <v>33.21</v>
+        <v>15.48</v>
       </c>
       <c r="Y3">
-        <v>26.97</v>
+        <v>2.08</v>
       </c>
       <c r="Z3">
-        <v>39.82</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>53.81</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE3">
-        <v>0.07000000000000001</v>
+        <v>10.29</v>
       </c>
       <c r="AF3">
-        <v>7.37</v>
-      </c>
-      <c r="AG3">
-        <v>19.47</v>
-      </c>
-      <c r="AH3">
-        <v>5.77</v>
-      </c>
-      <c r="AI3">
-        <v>16.25</v>
-      </c>
-      <c r="AJ3">
-        <v>5.52</v>
-      </c>
-      <c r="AK3">
-        <v>3.08</v>
-      </c>
-      <c r="AL3">
-        <v>18.41</v>
-      </c>
-      <c r="AM3">
-        <v>8.57</v>
-      </c>
-      <c r="AN3">
-        <v>15.48</v>
-      </c>
-      <c r="AO3">
-        <v>2.08</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>3.69</v>
-      </c>
-      <c r="AS3">
-        <v>53.81</v>
-      </c>
-      <c r="AT3">
-        <v>25</v>
-      </c>
-      <c r="AU3">
-        <v>10.29</v>
-      </c>
-      <c r="AV3">
         <v>5.14</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>30761</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>3689000057</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4183032000</v>
@@ -1000,7 +808,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>219192036</v>
@@ -1012,40 +820,40 @@
         <v>1404593</v>
       </c>
       <c r="O4">
-        <v>77.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>22.74</v>
+        <v>5.76</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>29.33</v>
       </c>
       <c r="R4">
-        <v>17.6</v>
+        <v>19.04</v>
       </c>
       <c r="S4">
-        <v>10.89</v>
+        <v>21.52</v>
       </c>
       <c r="T4">
-        <v>12.81</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>17.48</v>
+        <v>3.7</v>
       </c>
       <c r="V4">
-        <v>18.49</v>
+        <v>10.54</v>
       </c>
       <c r="W4">
-        <v>22.74</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>45.11</v>
+        <v>10.1</v>
       </c>
       <c r="Y4">
-        <v>34.87</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>20.02</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1054,75 +862,27 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>66.66</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>28.54</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AF4">
-        <v>5.76</v>
-      </c>
-      <c r="AG4">
-        <v>29.33</v>
-      </c>
-      <c r="AH4">
-        <v>19.04</v>
-      </c>
-      <c r="AI4">
-        <v>21.52</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>3.7</v>
-      </c>
-      <c r="AL4">
-        <v>10.54</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>10.1</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>66.66</v>
-      </c>
-      <c r="AT4">
-        <v>28.54</v>
-      </c>
-      <c r="AU4">
-        <v>2.08</v>
-      </c>
-      <c r="AV4">
         <v>2.72</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>42540</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>3689000057</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4183032000</v>
@@ -1146,7 +906,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>194710241</v>
@@ -1158,40 +918,40 @@
         <v>892049</v>
       </c>
       <c r="O5">
-        <v>97.69</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.31</v>
+        <v>7.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="R5">
-        <v>16.19</v>
+        <v>19.24</v>
       </c>
       <c r="S5">
-        <v>18.73</v>
+        <v>28.95</v>
       </c>
       <c r="T5">
-        <v>1.89</v>
+        <v>2.61</v>
       </c>
       <c r="U5">
-        <v>46.34</v>
+        <v>3.48</v>
       </c>
       <c r="V5">
-        <v>15.45</v>
+        <v>10.8</v>
       </c>
       <c r="W5">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>22.6</v>
+        <v>14.58</v>
       </c>
       <c r="Y5">
-        <v>41.92</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>35.48</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1200,75 +960,27 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>46.97</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF5">
-        <v>7.3</v>
-      </c>
-      <c r="AG5">
-        <v>13.04</v>
-      </c>
-      <c r="AH5">
-        <v>19.24</v>
-      </c>
-      <c r="AI5">
-        <v>28.95</v>
-      </c>
-      <c r="AJ5">
-        <v>2.61</v>
-      </c>
-      <c r="AK5">
-        <v>3.48</v>
-      </c>
-      <c r="AL5">
-        <v>10.8</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>14.58</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>46.97</v>
-      </c>
-      <c r="AT5">
-        <v>48.39</v>
-      </c>
-      <c r="AU5">
-        <v>1.56</v>
-      </c>
-      <c r="AV5">
         <v>3.07</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>54382</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>3689000057</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4183032000</v>
@@ -1292,7 +1004,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>199298484</v>
@@ -1304,40 +1016,40 @@
         <v>1106425</v>
       </c>
       <c r="O6">
-        <v>90.06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>9.94</v>
+        <v>2.58</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>14.43</v>
       </c>
       <c r="R6">
-        <v>49.79</v>
+        <v>24.14</v>
       </c>
       <c r="S6">
-        <v>1.6</v>
+        <v>23.66</v>
       </c>
       <c r="T6">
-        <v>14.95</v>
+        <v>2.58</v>
       </c>
       <c r="U6">
-        <v>16.41</v>
+        <v>2.29</v>
       </c>
       <c r="V6">
-        <v>7.3</v>
+        <v>14.51</v>
       </c>
       <c r="W6">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>39.57</v>
+        <v>15.81</v>
       </c>
       <c r="Y6">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>40.23</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1346,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>29.63</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1357,64 +1069,16 @@
       <c r="AF6">
         <v>2.58</v>
       </c>
-      <c r="AG6">
-        <v>14.43</v>
-      </c>
-      <c r="AH6">
-        <v>24.14</v>
-      </c>
-      <c r="AI6">
-        <v>23.66</v>
-      </c>
-      <c r="AJ6">
-        <v>2.58</v>
-      </c>
-      <c r="AK6">
-        <v>2.29</v>
-      </c>
-      <c r="AL6">
-        <v>14.51</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>15.81</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>29.63</v>
-      </c>
-      <c r="AT6">
-        <v>67.79000000000001</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>2.58</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>66250</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>3689000057</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4183032000</v>
@@ -1438,7 +1102,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>277161284</v>
@@ -1450,117 +1114,69 @@
         <v>1577068</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>9.08</v>
       </c>
       <c r="R7">
-        <v>31.86</v>
+        <v>10.54</v>
       </c>
       <c r="S7">
-        <v>34.85</v>
+        <v>28.59</v>
       </c>
       <c r="T7">
-        <v>7.87</v>
+        <v>1.86</v>
       </c>
       <c r="U7">
-        <v>4.1</v>
+        <v>11.54</v>
       </c>
       <c r="V7">
-        <v>21.31</v>
+        <v>24.3</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>45.47</v>
+        <v>12.18</v>
       </c>
       <c r="Y7">
-        <v>42.7</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>11.83</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>9.33</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>27.97</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>60.84</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.92</v>
-      </c>
-      <c r="AG7">
-        <v>9.08</v>
-      </c>
-      <c r="AH7">
-        <v>10.54</v>
-      </c>
-      <c r="AI7">
-        <v>28.59</v>
-      </c>
-      <c r="AJ7">
         <v>1.86</v>
       </c>
-      <c r="AK7">
-        <v>11.54</v>
-      </c>
-      <c r="AL7">
-        <v>24.3</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>12.18</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>9.33</v>
-      </c>
-      <c r="AS7">
-        <v>27.97</v>
-      </c>
-      <c r="AT7">
-        <v>60.84</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>1.86</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>78146</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>3689000057</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4183032000</v>
@@ -1584,7 +1200,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>200498855</v>
@@ -1596,117 +1212,69 @@
         <v>1104339</v>
       </c>
       <c r="O8">
-        <v>91.55</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>8.449999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>12.43</v>
       </c>
       <c r="R8">
-        <v>14.21</v>
+        <v>28.75</v>
       </c>
       <c r="S8">
-        <v>3.78</v>
+        <v>24.76</v>
       </c>
       <c r="T8">
-        <v>15.21</v>
+        <v>2.59</v>
       </c>
       <c r="U8">
-        <v>15.69</v>
+        <v>12.06</v>
       </c>
       <c r="V8">
-        <v>42.66</v>
+        <v>3.84</v>
       </c>
       <c r="W8">
-        <v>8.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>13.88</v>
+        <v>12.73</v>
       </c>
       <c r="Y8">
-        <v>53.96</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>31.7</v>
+        <v>0.26</v>
       </c>
       <c r="AA8">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>11.71</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>52.99</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>27.03</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="AF8">
-        <v>2.85</v>
-      </c>
-      <c r="AG8">
-        <v>12.43</v>
-      </c>
-      <c r="AH8">
-        <v>28.75</v>
-      </c>
-      <c r="AI8">
-        <v>24.76</v>
-      </c>
-      <c r="AJ8">
         <v>2.59</v>
       </c>
-      <c r="AK8">
-        <v>12.06</v>
-      </c>
-      <c r="AL8">
-        <v>3.84</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>12.73</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0.26</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>11.71</v>
-      </c>
-      <c r="AS8">
-        <v>52.99</v>
-      </c>
-      <c r="AT8">
-        <v>27.03</v>
-      </c>
-      <c r="AU8">
-        <v>5.43</v>
-      </c>
-      <c r="AV8">
-        <v>2.59</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>90030</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>3689000057</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4183032000</v>
@@ -1730,7 +1298,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>181675210</v>
@@ -1742,117 +1310,69 @@
         <v>1011148</v>
       </c>
       <c r="O9">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2.5</v>
+        <v>5.65</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>8.18</v>
       </c>
       <c r="R9">
-        <v>15.22</v>
+        <v>12.18</v>
       </c>
       <c r="S9">
-        <v>15.4</v>
+        <v>28.08</v>
       </c>
       <c r="T9">
-        <v>57.24</v>
+        <v>2.83</v>
       </c>
       <c r="U9">
-        <v>8.99</v>
+        <v>21.52</v>
       </c>
       <c r="V9">
-        <v>0.65</v>
+        <v>2.29</v>
       </c>
       <c r="W9">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>28.01</v>
+        <v>19.28</v>
       </c>
       <c r="Y9">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>15.12</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>49.51</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="AF9">
-        <v>5.65</v>
-      </c>
-      <c r="AG9">
-        <v>8.18</v>
-      </c>
-      <c r="AH9">
-        <v>12.18</v>
-      </c>
-      <c r="AI9">
-        <v>28.08</v>
-      </c>
-      <c r="AJ9">
         <v>2.83</v>
       </c>
-      <c r="AK9">
-        <v>21.52</v>
-      </c>
-      <c r="AL9">
-        <v>2.29</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>19.28</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>15.12</v>
-      </c>
-      <c r="AS9">
-        <v>49.51</v>
-      </c>
-      <c r="AT9">
-        <v>18.75</v>
-      </c>
-      <c r="AU9">
-        <v>13.79</v>
-      </c>
-      <c r="AV9">
-        <v>2.83</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>101952</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>3689000057</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4183032000</v>
@@ -1876,7 +1396,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>139130406</v>
@@ -1888,117 +1408,69 @@
         <v>906075</v>
       </c>
       <c r="O10">
-        <v>97.41</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2.59</v>
+        <v>7.36</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="R10">
-        <v>11.98</v>
+        <v>5.43</v>
       </c>
       <c r="S10">
-        <v>8.289999999999999</v>
+        <v>48.11</v>
       </c>
       <c r="T10">
-        <v>28.24</v>
+        <v>3.68</v>
       </c>
       <c r="U10">
-        <v>3.01</v>
+        <v>17.03</v>
       </c>
       <c r="V10">
-        <v>45.89</v>
+        <v>10.91</v>
       </c>
       <c r="W10">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>29.61</v>
+        <v>6.69</v>
       </c>
       <c r="Y10">
-        <v>43.57</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>26.83</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>37.3</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>48.87</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="AF10">
-        <v>7.36</v>
-      </c>
-      <c r="AG10">
-        <v>0.78</v>
-      </c>
-      <c r="AH10">
-        <v>5.43</v>
-      </c>
-      <c r="AI10">
-        <v>48.11</v>
-      </c>
-      <c r="AJ10">
         <v>3.68</v>
       </c>
-      <c r="AK10">
-        <v>17.03</v>
-      </c>
-      <c r="AL10">
-        <v>10.91</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>6.69</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>37.3</v>
-      </c>
-      <c r="AS10">
-        <v>48.87</v>
-      </c>
-      <c r="AT10">
-        <v>5.68</v>
-      </c>
-      <c r="AU10">
-        <v>4.47</v>
-      </c>
-      <c r="AV10">
-        <v>3.68</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>113907</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>3689000057</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4183032000</v>
@@ -2022,7 +1494,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>223119052</v>
@@ -2034,117 +1506,69 @@
         <v>1045119</v>
       </c>
       <c r="O11">
-        <v>97.12</v>
+        <v>0.29</v>
       </c>
       <c r="P11">
-        <v>2.88</v>
+        <v>0.3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>14.15</v>
       </c>
       <c r="R11">
-        <v>22.06</v>
+        <v>4.25</v>
       </c>
       <c r="S11">
-        <v>25.72</v>
+        <v>23.69</v>
       </c>
       <c r="T11">
-        <v>44.94</v>
+        <v>2.42</v>
       </c>
       <c r="U11">
-        <v>1.7</v>
+        <v>13.95</v>
       </c>
       <c r="V11">
-        <v>2.7</v>
+        <v>12.22</v>
       </c>
       <c r="W11">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>22.85</v>
+        <v>28.73</v>
       </c>
       <c r="Y11">
-        <v>56.16</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>20.99</v>
+        <v>0.29</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>15.35</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="AE11">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="AF11">
-        <v>0.3</v>
-      </c>
-      <c r="AG11">
-        <v>14.15</v>
-      </c>
-      <c r="AH11">
-        <v>4.25</v>
-      </c>
-      <c r="AI11">
-        <v>23.69</v>
-      </c>
-      <c r="AJ11">
-        <v>2.42</v>
-      </c>
-      <c r="AK11">
-        <v>13.95</v>
-      </c>
-      <c r="AL11">
-        <v>12.22</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>28.73</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0.29</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>15.35</v>
-      </c>
-      <c r="AS11">
-        <v>71.15000000000001</v>
-      </c>
-      <c r="AT11">
-        <v>8.01</v>
-      </c>
-      <c r="AU11">
-        <v>2.86</v>
-      </c>
-      <c r="AV11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>125907</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>3689000057</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4183032000</v>
@@ -2168,7 +1592,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>105115182</v>
@@ -2180,117 +1604,69 @@
         <v>926503</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>41.88</v>
       </c>
       <c r="R12">
-        <v>16.22</v>
+        <v>8.4</v>
       </c>
       <c r="S12">
-        <v>54.83</v>
+        <v>15.86</v>
       </c>
       <c r="T12">
-        <v>10.16</v>
+        <v>4.91</v>
       </c>
       <c r="U12">
-        <v>18.28</v>
+        <v>1.73</v>
       </c>
       <c r="V12">
-        <v>0.51</v>
+        <v>16.18</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X12">
-        <v>17.59</v>
+        <v>9.58</v>
       </c>
       <c r="Y12">
-        <v>51.95</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>30.46</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>70.34</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>41.88</v>
-      </c>
-      <c r="AH12">
-        <v>8.4</v>
-      </c>
-      <c r="AI12">
-        <v>15.86</v>
-      </c>
-      <c r="AJ12">
-        <v>4.91</v>
-      </c>
-      <c r="AK12">
-        <v>1.73</v>
-      </c>
-      <c r="AL12">
-        <v>16.18</v>
-      </c>
-      <c r="AM12">
-        <v>1.48</v>
-      </c>
-      <c r="AN12">
-        <v>9.58</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>1.73</v>
-      </c>
-      <c r="AS12">
-        <v>70.34</v>
-      </c>
-      <c r="AT12">
-        <v>21.43</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
         <v>6.51</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>137911</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>3689000057</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4183032000</v>
@@ -2314,7 +1690,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>41058910</v>
@@ -2326,117 +1702,69 @@
         <v>361178</v>
       </c>
       <c r="O13">
-        <v>95.27</v>
+        <v>1.58</v>
       </c>
       <c r="P13">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="Q13">
+        <v>11.04</v>
+      </c>
+      <c r="R13">
+        <v>12.59</v>
+      </c>
+      <c r="S13">
+        <v>8.77</v>
+      </c>
+      <c r="T13">
+        <v>12.59</v>
+      </c>
+      <c r="U13">
+        <v>7.31</v>
+      </c>
+      <c r="V13">
         <v>3.15</v>
       </c>
-      <c r="R13">
-        <v>2.9</v>
-      </c>
-      <c r="S13">
-        <v>36.48</v>
-      </c>
-      <c r="T13">
-        <v>23.59</v>
-      </c>
-      <c r="U13">
-        <v>7.55</v>
-      </c>
-      <c r="V13">
-        <v>26.32</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>18.81</v>
+        <v>43</v>
       </c>
       <c r="Y13">
-        <v>33.29</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>47.9</v>
+        <v>1.58</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>68.89</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>12.32</v>
       </c>
       <c r="AE13">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>11.04</v>
-      </c>
-      <c r="AH13">
-        <v>12.59</v>
-      </c>
-      <c r="AI13">
-        <v>8.77</v>
-      </c>
-      <c r="AJ13">
-        <v>12.59</v>
-      </c>
-      <c r="AK13">
-        <v>7.31</v>
-      </c>
-      <c r="AL13">
-        <v>3.15</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>43</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>1.58</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>4.43</v>
-      </c>
-      <c r="AS13">
-        <v>68.89</v>
-      </c>
-      <c r="AT13">
-        <v>12.32</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
         <v>12.79</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>149932</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2448,10 +1776,10 @@
         <v>3689000057</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4183032000</v>
@@ -2460,7 +1788,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>45560507</v>
@@ -2472,117 +1800,69 @@
         <v>520770</v>
       </c>
       <c r="O14">
-        <v>98.58</v>
+        <v>1.42</v>
       </c>
       <c r="P14">
+        <v>11.3</v>
+      </c>
+      <c r="Q14">
+        <v>6.52</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>4.67</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>55.27</v>
+      </c>
+      <c r="V14">
+        <v>7.16</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>13.66</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>1.42</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>43.52</v>
-      </c>
-      <c r="S14">
-        <v>12.25</v>
-      </c>
-      <c r="T14">
-        <v>37.91</v>
-      </c>
-      <c r="U14">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="V14">
-        <v>5.76</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>11.3</v>
-      </c>
-      <c r="Y14">
-        <v>82</v>
-      </c>
-      <c r="Z14">
-        <v>6.71</v>
-      </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>27.41</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AE14">
-        <v>1.42</v>
+        <v>46.32</v>
       </c>
       <c r="AF14">
         <v>11.3</v>
       </c>
-      <c r="AG14">
-        <v>6.52</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>4.67</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>55.27</v>
-      </c>
-      <c r="AL14">
-        <v>7.16</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>13.66</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1.42</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>4.67</v>
-      </c>
-      <c r="AS14">
-        <v>27.41</v>
-      </c>
-      <c r="AT14">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AU14">
-        <v>46.32</v>
-      </c>
-      <c r="AV14">
-        <v>11.3</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>161977</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2594,10 +1874,10 @@
         <v>3689000057</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4183032000</v>
@@ -2606,7 +1886,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>166369926</v>
@@ -2618,117 +1898,69 @@
         <v>2206171</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>24.86</v>
       </c>
       <c r="R15">
-        <v>26.71</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>37.78</v>
+        <v>0.79</v>
       </c>
       <c r="T15">
-        <v>19.51</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>7.94</v>
+        <v>26.43</v>
       </c>
       <c r="V15">
-        <v>8.06</v>
+        <v>0.84</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>3.24</v>
+        <v>43.74</v>
       </c>
       <c r="Y15">
-        <v>39.91</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>56.85</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>66.08</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>14.88</v>
       </c>
       <c r="AF15">
-        <v>3.35</v>
-      </c>
-      <c r="AG15">
-        <v>24.86</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0.79</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>26.43</v>
-      </c>
-      <c r="AL15">
-        <v>0.84</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>43.74</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0.59</v>
-      </c>
-      <c r="AS15">
-        <v>14.9</v>
-      </c>
-      <c r="AT15">
-        <v>66.08</v>
-      </c>
-      <c r="AU15">
-        <v>14.88</v>
-      </c>
-      <c r="AV15">
         <v>3.55</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>174044</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2740,10 +1972,10 @@
         <v>3689000057</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4183032000</v>
@@ -2752,7 +1984,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>85765091</v>
@@ -2764,40 +1996,40 @@
         <v>1199739</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>0.75</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="R16">
-        <v>1.21</v>
+        <v>3.69</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="T16">
-        <v>71.41</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>3.69</v>
+        <v>34.83</v>
       </c>
       <c r="V16">
-        <v>23.68</v>
+        <v>1.49</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="X16">
-        <v>12.8</v>
+        <v>50.58</v>
       </c>
       <c r="Y16">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>81.09999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2806,75 +2038,27 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>15.29</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>61.02</v>
       </c>
       <c r="AE16">
-        <v>0.75</v>
+        <v>22.78</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>5.41</v>
-      </c>
-      <c r="AH16">
-        <v>3.69</v>
-      </c>
-      <c r="AI16">
-        <v>3.21</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>34.83</v>
-      </c>
-      <c r="AL16">
-        <v>1.49</v>
-      </c>
-      <c r="AM16">
-        <v>0.03</v>
-      </c>
-      <c r="AN16">
-        <v>50.58</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0.9</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>15.29</v>
-      </c>
-      <c r="AT16">
-        <v>61.02</v>
-      </c>
-      <c r="AU16">
-        <v>22.78</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>186167</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2886,10 +2070,10 @@
         <v>3689000057</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4183032000</v>
@@ -2898,7 +2082,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>136325096</v>
@@ -2910,117 +2094,69 @@
         <v>2023273</v>
       </c>
       <c r="O17">
-        <v>67.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>32.32</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>32.32</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>41.1</v>
+        <v>0.34</v>
       </c>
       <c r="S17">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="T17">
-        <v>7.72</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>52.81</v>
       </c>
       <c r="V17">
-        <v>16.73</v>
+        <v>0.96</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>2.53</v>
+        <v>43.6</v>
       </c>
       <c r="Y17">
-        <v>28.81</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>43.76</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0.34</v>
-      </c>
-      <c r="AI17">
-        <v>2.28</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>52.81</v>
-      </c>
-      <c r="AL17">
-        <v>0.96</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>43.6</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>1.05</v>
-      </c>
-      <c r="AS17">
-        <v>41</v>
-      </c>
-      <c r="AT17">
-        <v>43.76</v>
-      </c>
-      <c r="AU17">
-        <v>14.2</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>198321</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3032,10 +2168,10 @@
         <v>3689000057</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4183032000</v>
@@ -3044,7 +2180,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>100420971</v>
@@ -3056,117 +2192,69 @@
         <v>1567848</v>
       </c>
       <c r="O18">
-        <v>83.58</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>16.42</v>
+        <v>17.34</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R18">
-        <v>6.75</v>
+        <v>3.81</v>
       </c>
       <c r="S18">
-        <v>21.35</v>
+        <v>8.84</v>
       </c>
       <c r="T18">
-        <v>28.52</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>36.78</v>
+        <v>55.83</v>
       </c>
       <c r="V18">
-        <v>6.59</v>
+        <v>12.84</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>23.18</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>71.53</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>44.03</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>22.56</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>33.41</v>
       </c>
       <c r="AF18">
-        <v>17.34</v>
-      </c>
-      <c r="AG18">
-        <v>1.35</v>
-      </c>
-      <c r="AH18">
-        <v>3.81</v>
-      </c>
-      <c r="AI18">
-        <v>8.84</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>55.83</v>
-      </c>
-      <c r="AL18">
-        <v>12.84</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>44.03</v>
-      </c>
-      <c r="AT18">
-        <v>22.56</v>
-      </c>
-      <c r="AU18">
-        <v>33.41</v>
-      </c>
-      <c r="AV18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>210510</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3178,10 +2266,10 @@
         <v>3689000057</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4183032000</v>
@@ -3190,7 +2278,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>120413095</v>
@@ -3202,40 +2290,40 @@
         <v>2304704</v>
       </c>
       <c r="O19">
-        <v>85.83</v>
+        <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.28</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>19.87</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>50.6</v>
+      </c>
+      <c r="V19">
+        <v>1.08</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>14.17</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>27.81</v>
-      </c>
-      <c r="T19">
-        <v>28.55</v>
-      </c>
-      <c r="U19">
-        <v>29.47</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>14.17</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19">
-        <v>49.13</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -3244,75 +2332,27 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>40.02</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>43.63</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>16.34</v>
       </c>
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>14.28</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>19.87</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>50.6</v>
-      </c>
-      <c r="AL19">
-        <v>1.08</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>14.17</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>40.02</v>
-      </c>
-      <c r="AT19">
-        <v>43.63</v>
-      </c>
-      <c r="AU19">
-        <v>16.34</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>222731</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3324,10 +2364,10 @@
         <v>3689000057</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4183032000</v>
@@ -3336,7 +2376,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>75392756</v>
@@ -3348,40 +2388,40 @@
         <v>1341294</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="R20">
-        <v>25.16</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>54</v>
+        <v>28.01</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>8.619999999999999</v>
+        <v>43.82</v>
       </c>
       <c r="V20">
-        <v>12.21</v>
+        <v>17.15</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>22.09</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>75.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -3390,75 +2430,27 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>41.56</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>45.38</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>11.02</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>28.01</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>43.82</v>
-      </c>
-      <c r="AL20">
-        <v>17.15</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>41.56</v>
-      </c>
-      <c r="AT20">
-        <v>45.38</v>
-      </c>
-      <c r="AU20">
-        <v>13.06</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>239193</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202108</v>
@@ -3470,10 +2462,10 @@
         <v>3089201679</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4183032000</v>
@@ -3482,7 +2474,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>56196965</v>
@@ -3494,117 +2486,69 @@
         <v>885595</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>26.13</v>
       </c>
       <c r="R21">
-        <v>12.33</v>
+        <v>6.38</v>
       </c>
       <c r="S21">
-        <v>3.22</v>
+        <v>14.7</v>
       </c>
       <c r="T21">
-        <v>44.71</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>13.08</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>26.67</v>
+        <v>52.78</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>17.58</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>47.92</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>34.49</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>27.68</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>21.27</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>46.19</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>26.13</v>
-      </c>
-      <c r="AH21">
-        <v>6.38</v>
-      </c>
-      <c r="AI21">
-        <v>14.7</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>52.78</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>4.86</v>
-      </c>
-      <c r="AS21">
-        <v>27.68</v>
-      </c>
-      <c r="AT21">
-        <v>21.27</v>
-      </c>
-      <c r="AU21">
-        <v>46.19</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>251507</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202109</v>
@@ -3616,10 +2560,10 @@
         <v>3089201679</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4183032000</v>
@@ -3628,7 +2572,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>159473673</v>
@@ -3640,117 +2584,69 @@
         <v>1426737</v>
       </c>
       <c r="O22">
-        <v>89.7</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>10.3</v>
+        <v>1.68</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>17.63</v>
       </c>
       <c r="S22">
-        <v>38.07</v>
+        <v>10.89</v>
       </c>
       <c r="T22">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>13.05</v>
+        <v>0.31</v>
       </c>
       <c r="V22">
-        <v>35.74</v>
+        <v>1.67</v>
       </c>
       <c r="W22">
-        <v>10.3</v>
+        <v>40.35</v>
       </c>
       <c r="X22">
-        <v>51.42</v>
+        <v>2.67</v>
       </c>
       <c r="Y22">
-        <v>40.69</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>7.89</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>17.04</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>28.01</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>25.97</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>28.98</v>
       </c>
       <c r="AF22">
-        <v>1.68</v>
-      </c>
-      <c r="AG22">
-        <v>24.8</v>
-      </c>
-      <c r="AH22">
-        <v>17.63</v>
-      </c>
-      <c r="AI22">
-        <v>10.89</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0.31</v>
-      </c>
-      <c r="AL22">
-        <v>1.67</v>
-      </c>
-      <c r="AM22">
-        <v>40.35</v>
-      </c>
-      <c r="AN22">
-        <v>2.67</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>17.04</v>
-      </c>
-      <c r="AS22">
-        <v>28.01</v>
-      </c>
-      <c r="AT22">
-        <v>25.97</v>
-      </c>
-      <c r="AU22">
-        <v>28.98</v>
-      </c>
-      <c r="AV22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>263865</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202110</v>
@@ -3762,10 +2658,10 @@
         <v>3089201679</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4183032000</v>
@@ -3774,7 +2670,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>210952677</v>
@@ -3786,117 +2682,69 @@
         <v>1391623</v>
       </c>
       <c r="O23">
-        <v>70.62</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>29.38</v>
+        <v>2.79</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="R23">
-        <v>15.41</v>
+        <v>34.52</v>
       </c>
       <c r="S23">
-        <v>16.3</v>
+        <v>14.02</v>
       </c>
       <c r="T23">
-        <v>18.05</v>
+        <v>2.48</v>
       </c>
       <c r="U23">
-        <v>9.98</v>
+        <v>0.96</v>
       </c>
       <c r="V23">
-        <v>23.49</v>
+        <v>2.48</v>
       </c>
       <c r="W23">
-        <v>16.77</v>
+        <v>17.92</v>
       </c>
       <c r="X23">
-        <v>22.85</v>
+        <v>7.87</v>
       </c>
       <c r="Y23">
-        <v>50.02</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>27.13</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>33.49</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="AF23">
-        <v>2.79</v>
-      </c>
-      <c r="AG23">
-        <v>16.95</v>
-      </c>
-      <c r="AH23">
-        <v>34.52</v>
-      </c>
-      <c r="AI23">
-        <v>14.02</v>
-      </c>
-      <c r="AJ23">
-        <v>2.48</v>
-      </c>
-      <c r="AK23">
-        <v>0.96</v>
-      </c>
-      <c r="AL23">
-        <v>2.48</v>
-      </c>
-      <c r="AM23">
-        <v>17.92</v>
-      </c>
-      <c r="AN23">
-        <v>7.87</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>11.07</v>
-      </c>
-      <c r="AS23">
-        <v>33.49</v>
-      </c>
-      <c r="AT23">
-        <v>44.8</v>
-      </c>
-      <c r="AU23">
-        <v>3.23</v>
-      </c>
-      <c r="AV23">
         <v>7.41</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>276249</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202111</v>
@@ -3908,10 +2756,10 @@
         <v>3089201679</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4183032000</v>
@@ -3920,7 +2768,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>260909961</v>
@@ -3932,117 +2780,69 @@
         <v>1681349</v>
       </c>
       <c r="O24">
-        <v>98.67</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.33</v>
+        <v>4.49</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>11.83</v>
       </c>
       <c r="R24">
-        <v>12.77</v>
+        <v>19.88</v>
       </c>
       <c r="S24">
-        <v>47.04</v>
+        <v>18.74</v>
       </c>
       <c r="T24">
-        <v>32.17</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>3.92</v>
+        <v>0.96</v>
       </c>
       <c r="V24">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.33</v>
+        <v>34.06</v>
       </c>
       <c r="X24">
-        <v>53.8</v>
+        <v>10.04</v>
       </c>
       <c r="Y24">
-        <v>20.16</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>26.04</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>30.96</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>16.52</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>44.53</v>
       </c>
       <c r="AF24">
-        <v>4.49</v>
-      </c>
-      <c r="AG24">
-        <v>11.83</v>
-      </c>
-      <c r="AH24">
-        <v>19.88</v>
-      </c>
-      <c r="AI24">
-        <v>18.74</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0.96</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>34.06</v>
-      </c>
-      <c r="AN24">
-        <v>10.04</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0.62</v>
-      </c>
-      <c r="AS24">
-        <v>30.96</v>
-      </c>
-      <c r="AT24">
-        <v>16.52</v>
-      </c>
-      <c r="AU24">
-        <v>44.53</v>
-      </c>
-      <c r="AV24">
         <v>7.37</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>288653</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202112</v>
@@ -4054,10 +2854,10 @@
         <v>3089201679</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4183032000</v>
@@ -4066,7 +2866,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>187034007</v>
@@ -4078,117 +2878,69 @@
         <v>1596561</v>
       </c>
       <c r="O25">
-        <v>63.72</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>36.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>22.76</v>
       </c>
       <c r="R25">
-        <v>9.529999999999999</v>
+        <v>22.42</v>
       </c>
       <c r="S25">
-        <v>4.21</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="T25">
-        <v>10.03</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>23.54</v>
+        <v>0.35</v>
       </c>
       <c r="V25">
-        <v>16.41</v>
+        <v>0.02</v>
       </c>
       <c r="W25">
-        <v>36.28</v>
+        <v>29.52</v>
       </c>
       <c r="X25">
-        <v>39.77</v>
+        <v>12.2</v>
       </c>
       <c r="Y25">
-        <v>7.64</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>52.59</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>29.15</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>45.18</v>
       </c>
       <c r="AF25">
-        <v>3.35</v>
-      </c>
-      <c r="AG25">
-        <v>22.76</v>
-      </c>
-      <c r="AH25">
-        <v>22.42</v>
-      </c>
-      <c r="AI25">
         <v>9.380000000000001</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0.35</v>
-      </c>
-      <c r="AL25">
-        <v>0.02</v>
-      </c>
-      <c r="AM25">
-        <v>29.52</v>
-      </c>
-      <c r="AN25">
-        <v>12.2</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>1.54</v>
-      </c>
-      <c r="AS25">
-        <v>14.75</v>
-      </c>
-      <c r="AT25">
-        <v>29.15</v>
-      </c>
-      <c r="AU25">
-        <v>45.18</v>
-      </c>
-      <c r="AV25">
-        <v>9.380000000000001</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>301055</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>202201</v>
@@ -4200,10 +2952,10 @@
         <v>3089201679</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>4183032000</v>
@@ -4212,7 +2964,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L26">
         <v>158396692</v>
@@ -4224,117 +2976,69 @@
         <v>1695134</v>
       </c>
       <c r="O26">
-        <v>97.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>2.76</v>
+        <v>3.88</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="R26">
-        <v>40.75</v>
+        <v>18.06</v>
       </c>
       <c r="S26">
-        <v>52.06</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="T26">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1.59</v>
+        <v>2.87</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>2.76</v>
+        <v>40.91</v>
       </c>
       <c r="X26">
-        <v>2.76</v>
+        <v>21.03</v>
       </c>
       <c r="Y26">
-        <v>39.91</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>57.34</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>40.54</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>28.46</v>
       </c>
       <c r="AF26">
-        <v>3.88</v>
-      </c>
-      <c r="AG26">
-        <v>3.47</v>
-      </c>
-      <c r="AH26">
-        <v>18.06</v>
-      </c>
-      <c r="AI26">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>2.87</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>40.91</v>
-      </c>
-      <c r="AN26">
-        <v>21.03</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>2.77</v>
-      </c>
-      <c r="AS26">
-        <v>10.5</v>
-      </c>
-      <c r="AT26">
-        <v>40.54</v>
-      </c>
-      <c r="AU26">
-        <v>28.46</v>
-      </c>
-      <c r="AV26">
         <v>17.74</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>313508</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>202202</v>
@@ -4346,10 +3050,10 @@
         <v>3089201679</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>4183032000</v>
@@ -4358,7 +3062,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L27">
         <v>195075683</v>
@@ -4370,117 +3074,69 @@
         <v>2099898</v>
       </c>
       <c r="O27">
-        <v>99.48</v>
+        <v>0</v>
       </c>
       <c r="P27">
+        <v>2.65</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>15.8</v>
+      </c>
+      <c r="S27">
+        <v>10.47</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>0.52</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>15.28</v>
-      </c>
-      <c r="S27">
-        <v>2.57</v>
-      </c>
-      <c r="T27">
-        <v>30.64</v>
-      </c>
-      <c r="U27">
-        <v>9.09</v>
-      </c>
       <c r="V27">
-        <v>41.9</v>
+        <v>0.47</v>
       </c>
       <c r="W27">
-        <v>0.52</v>
+        <v>53.04</v>
       </c>
       <c r="X27">
-        <v>17.14</v>
+        <v>11.05</v>
       </c>
       <c r="Y27">
-        <v>66.66</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>61.18</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="AF27">
         <v>2.65</v>
       </c>
-      <c r="AG27">
-        <v>6</v>
-      </c>
-      <c r="AH27">
-        <v>15.8</v>
-      </c>
-      <c r="AI27">
-        <v>10.47</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0.52</v>
-      </c>
-      <c r="AL27">
-        <v>0.47</v>
-      </c>
-      <c r="AM27">
-        <v>53.04</v>
-      </c>
-      <c r="AN27">
-        <v>11.05</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0.79</v>
-      </c>
-      <c r="AS27">
-        <v>18.72</v>
-      </c>
-      <c r="AT27">
-        <v>61.18</v>
-      </c>
-      <c r="AU27">
-        <v>16.66</v>
-      </c>
-      <c r="AV27">
-        <v>2.65</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>325997</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4492,10 +3148,10 @@
         <v>3089201679</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>4183032000</v>
@@ -4504,7 +3160,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>90977004</v>
@@ -4516,117 +3172,69 @@
         <v>1056575</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>13.11</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>21.02</v>
       </c>
       <c r="R28">
+        <v>14.37</v>
+      </c>
+      <c r="S28">
+        <v>2.01</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>1.67</v>
       </c>
-      <c r="S28">
-        <v>8.09</v>
-      </c>
-      <c r="T28">
-        <v>40</v>
-      </c>
-      <c r="U28">
-        <v>17.27</v>
-      </c>
-      <c r="V28">
-        <v>32.96</v>
-      </c>
       <c r="W28">
-        <v>0</v>
+        <v>14.42</v>
       </c>
       <c r="X28">
-        <v>24.28</v>
+        <v>33.4</v>
       </c>
       <c r="Y28">
-        <v>70.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>66.16</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>11.47</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="AF28">
-        <v>13.11</v>
-      </c>
-      <c r="AG28">
-        <v>21.02</v>
-      </c>
-      <c r="AH28">
-        <v>14.37</v>
-      </c>
-      <c r="AI28">
-        <v>2.01</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>1.67</v>
-      </c>
-      <c r="AM28">
-        <v>14.42</v>
-      </c>
-      <c r="AN28">
-        <v>33.4</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>1.67</v>
-      </c>
-      <c r="AS28">
-        <v>66.16</v>
-      </c>
-      <c r="AT28">
-        <v>11.47</v>
-      </c>
-      <c r="AU28">
-        <v>15.13</v>
-      </c>
-      <c r="AV28">
         <v>5.57</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>338554</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4638,10 +3246,10 @@
         <v>3089201679</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>4183032000</v>
@@ -4650,7 +3258,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>126046035</v>
@@ -4662,117 +3270,69 @@
         <v>880844</v>
       </c>
       <c r="O29">
-        <v>98.92</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>1.08</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>25.64</v>
       </c>
       <c r="R29">
-        <v>17.42</v>
+        <v>22.23</v>
       </c>
       <c r="S29">
-        <v>13.18</v>
+        <v>10.8</v>
       </c>
       <c r="T29">
-        <v>29.91</v>
+        <v>3.98</v>
       </c>
       <c r="U29">
-        <v>12.46</v>
+        <v>1.22</v>
       </c>
       <c r="V29">
-        <v>25.95</v>
+        <v>1.22</v>
       </c>
       <c r="W29">
-        <v>1.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="X29">
-        <v>26.83</v>
+        <v>18.61</v>
       </c>
       <c r="Y29">
-        <v>46.66</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>26.52</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>24.73</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>43.69</v>
       </c>
       <c r="AF29">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG29">
-        <v>25.64</v>
-      </c>
-      <c r="AH29">
-        <v>22.23</v>
-      </c>
-      <c r="AI29">
-        <v>10.8</v>
-      </c>
-      <c r="AJ29">
-        <v>3.98</v>
-      </c>
-      <c r="AK29">
-        <v>1.22</v>
-      </c>
-      <c r="AL29">
-        <v>1.22</v>
-      </c>
-      <c r="AM29">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AN29">
-        <v>18.61</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1.22</v>
-      </c>
-      <c r="AS29">
-        <v>24.73</v>
-      </c>
-      <c r="AT29">
-        <v>11.6</v>
-      </c>
-      <c r="AU29">
-        <v>43.69</v>
-      </c>
-      <c r="AV29">
         <v>18.76</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>351182</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4784,10 +3344,10 @@
         <v>3089201679</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>4183032000</v>
@@ -4796,7 +3356,7 @@
         <v>1526.851515151515</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <v>117656478</v>
@@ -4808,105 +3368,57 @@
         <v>852310</v>
       </c>
       <c r="O30">
-        <v>99.25</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.75</v>
+        <v>8.69</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="R30">
-        <v>23.03</v>
+        <v>31.87</v>
       </c>
       <c r="S30">
-        <v>42.59</v>
+        <v>7.19</v>
       </c>
       <c r="T30">
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>3.96</v>
+        <v>4.35</v>
       </c>
       <c r="V30">
-        <v>18.79</v>
+        <v>1.3</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>8.69</v>
       </c>
       <c r="X30">
-        <v>17.62</v>
+        <v>20.71</v>
       </c>
       <c r="Y30">
-        <v>64.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>49.73</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>14.07</v>
       </c>
       <c r="AF30">
-        <v>8.69</v>
-      </c>
-      <c r="AG30">
-        <v>17.2</v>
-      </c>
-      <c r="AH30">
-        <v>31.87</v>
-      </c>
-      <c r="AI30">
-        <v>7.19</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>4.35</v>
-      </c>
-      <c r="AL30">
-        <v>1.3</v>
-      </c>
-      <c r="AM30">
-        <v>8.69</v>
-      </c>
-      <c r="AN30">
-        <v>20.71</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>49.73</v>
-      </c>
-      <c r="AT30">
-        <v>13.04</v>
-      </c>
-      <c r="AU30">
-        <v>14.07</v>
-      </c>
-      <c r="AV30">
         <v>23.16</v>
       </c>
     </row>
